--- a/trunk/6. Test/Linh tinh/Sprint 2/AS_TE_TestCase_Sprint2.xlsx
+++ b/trunk/6. Test/Linh tinh/Sprint 2/AS_TE_TestCase_Sprint2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Testcase Sprint 1" sheetId="1" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="784">
   <si>
     <t>Expected results</t>
   </si>
@@ -3551,13 +3551,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3567,15 +3567,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3587,12 +3578,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3612,18 +3624,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5766,7 +5766,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -7569,7 +7569,7 @@
   </sheetPr>
   <dimension ref="A4:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
@@ -8138,6 +8138,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A29:D29"/>
@@ -8145,17 +8156,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8168,10 +8168,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:J277"/>
+  <dimension ref="A2:J276"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:XFD147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -8188,81 +8188,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="106"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="54">
-        <f>COUNTIF(I12:I277,"&gt;a0")</f>
-        <v>53</v>
+        <f>COUNTIF(I12:I276,"&gt;a0")</f>
+        <v>52</v>
       </c>
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="54">
-        <f>COUNTIF(H12:H277,"Passed")</f>
-        <v>50</v>
+        <f>COUNTIF(H12:H276,"Passed")</f>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="54">
-        <f>COUNTIF(H12:H277,"Failed")</f>
+        <f>COUNTIF(H12:H276,"Failed")</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="54">
-        <f>COUNTIF(H12:H130,"Block")</f>
+        <f>COUNTIF(H12:H129,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="108" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -8352,76 +8352,76 @@
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="1:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="46">
+        <v>159</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="46">
-        <v>158</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
-        <v>92</v>
-      </c>
       <c r="C17" s="46">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>93</v>
@@ -8436,16 +8436,16 @@
     </row>
     <row r="18" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="46">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>723</v>
@@ -8461,312 +8461,312 @@
       </c>
       <c r="J18" s="45"/>
     </row>
-    <row r="19" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="46">
-        <v>161</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="G19" s="45" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B21" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="93">
+        <v>162</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>603</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H21" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="93">
-        <v>162</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>603</v>
-      </c>
+      <c r="I21" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J22" s="45"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="94"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="97"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="94"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="103"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="94"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="97"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="33" t="s">
-        <v>557</v>
+        <v>701</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="94"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="103"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="78"/>
     </row>
-    <row r="25" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="97"/>
+    <row r="25" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="33" t="s">
-        <v>701</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="103"/>
+        <v>702</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="78"/>
     </row>
-    <row r="26" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="78"/>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="48" t="s">
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C26" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="93" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C27" s="93">
         <v>163</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D27" s="99" t="s">
         <v>604</v>
       </c>
+      <c r="E27" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="33" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G28" s="94"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="91"/>
       <c r="J28" s="45"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="94"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="97"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="103"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="45"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="94"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="97"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="94"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="103"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="45"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B31" s="94"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="97"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="33" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="94"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="103"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="97"/>
+    <row r="32" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="33" t="s">
-        <v>558</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="103"/>
+        <v>559</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="G32" s="95"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="92"/>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G33" s="95"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="104"/>
+    <row r="33" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B33" s="45"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="45"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="33"/>
+    <row r="34" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-    </row>
-    <row r="37" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C36" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-    </row>
-    <row r="38" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+    </row>
+    <row r="37" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="79">
+        <v>164</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C38" s="79">
-        <v>164</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>133</v>
+        <v>165</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>149</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>93</v>
@@ -8779,775 +8779,775 @@
       </c>
       <c r="J38" s="45"/>
     </row>
-    <row r="39" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="79">
-        <v>165</v>
-      </c>
-      <c r="D39" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="45" t="s">
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
+    </row>
+    <row r="41" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B41" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="93">
+        <v>178</v>
+      </c>
+      <c r="D41" s="99" t="s">
+        <v>627</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H41" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>618</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-    </row>
-    <row r="42" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="93">
-        <v>178</v>
-      </c>
-      <c r="D42" s="96" t="s">
-        <v>627</v>
-      </c>
+      <c r="I41" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="J41" s="45"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="100"/>
       <c r="E42" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="45"/>
+    </row>
+    <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="G43" s="95"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
+    </row>
+    <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B45" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="93">
+        <v>179</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>633</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="93" t="s">
+      <c r="F45" s="33"/>
+      <c r="G45" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H42" s="99" t="s">
+      <c r="H45" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="102" t="s">
+      <c r="I45" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="45"/>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="33" t="s">
+      <c r="J45" s="45"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="45"/>
-    </row>
-    <row r="44" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="45"/>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>615</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
-    </row>
-    <row r="46" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="93">
-        <v>179</v>
-      </c>
-      <c r="D46" s="96" t="s">
-        <v>633</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="J46" s="45"/>
+      <c r="F46" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="G46" s="94"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="78"/>
     </row>
     <row r="47" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="94"/>
       <c r="C47" s="94"/>
-      <c r="D47" s="97"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="33" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G47" s="94"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="103"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="91"/>
       <c r="J47" s="78"/>
     </row>
     <row r="48" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="94"/>
       <c r="C48" s="94"/>
-      <c r="D48" s="97"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="33" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G48" s="94"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="103"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="91"/>
       <c r="J48" s="78"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="97"/>
+    <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="33" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="103"/>
+        <v>720</v>
+      </c>
+      <c r="G49" s="95"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="78"/>
     </row>
-    <row r="50" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="G50" s="95"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="78"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="48" t="s">
+    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C50" s="60" t="s">
         <v>614</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
-    </row>
-    <row r="52" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B52" s="109" t="s">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B51" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="93">
+      <c r="C51" s="93">
         <v>180</v>
       </c>
-      <c r="D52" s="96" t="s">
+      <c r="D51" s="99" t="s">
         <v>638</v>
       </c>
+      <c r="E51" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="G51" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B52" s="114"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="100"/>
       <c r="E52" s="33" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="G52" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H52" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="102" t="s">
-        <v>456</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G52" s="94"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="91"/>
       <c r="J52" s="45"/>
     </row>
-    <row r="53" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B53" s="110"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="33" t="s">
-        <v>704</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="G53" s="94"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="45"/>
-    </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="61" t="s">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="61" t="s">
         <v>617</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="45"/>
     </row>
     <row r="55" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="45"/>
       <c r="C55" s="46"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="45"/>
       <c r="H55" s="40"/>
       <c r="I55" s="33"/>
       <c r="J55" s="45"/>
     </row>
-    <row r="56" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="33"/>
+    <row r="56" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="76"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="75"/>
       <c r="J56" s="45"/>
     </row>
-    <row r="57" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="45"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="61" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="48" t="s">
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+    </row>
+    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C58" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
-    </row>
-    <row r="60" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B60" s="112" t="s">
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="59" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="112">
+      <c r="C59" s="105">
         <v>166</v>
       </c>
-      <c r="D60" s="113" t="s">
+      <c r="D59" s="106" t="s">
         <v>593</v>
       </c>
+      <c r="E59" s="33" t="s">
+        <v>659</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="J59" s="45"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
       <c r="E60" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="112" t="s">
+        <v>573</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="G60" s="105"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="45"/>
+    </row>
+    <row r="61" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="G61" s="105"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="45"/>
+    </row>
+    <row r="62" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="G62" s="105"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="45"/>
+    </row>
+    <row r="63" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="G63" s="105"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="45"/>
+    </row>
+    <row r="64" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="G64" s="105"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="45"/>
+    </row>
+    <row r="65" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B65" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="105">
+        <v>167</v>
+      </c>
+      <c r="D65" s="106" t="s">
+        <v>594</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="F65" s="33"/>
+      <c r="G65" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="H60" s="114" t="s">
+      <c r="H65" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="111" t="s">
+      <c r="I65" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="J60" s="45"/>
-    </row>
-    <row r="61" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="112"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="F61" s="33" t="s">
+      <c r="J65" s="45"/>
+    </row>
+    <row r="66" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="F66" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="G61" s="112"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="45"/>
-    </row>
-    <row r="62" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="33" t="s">
+      <c r="G66" s="105"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="45"/>
+    </row>
+    <row r="67" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="F62" s="33" t="s">
+      <c r="F67" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="G62" s="112"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="45"/>
-    </row>
-    <row r="63" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="112"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="33" t="s">
+      <c r="G67" s="105"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="45"/>
+    </row>
+    <row r="68" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F68" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="G63" s="112"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="111"/>
-      <c r="J63" s="45"/>
-    </row>
-    <row r="64" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="112"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="33" t="s">
+      <c r="G68" s="105"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="45"/>
+    </row>
+    <row r="69" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F69" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="G64" s="112"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="111"/>
-      <c r="J64" s="45"/>
-    </row>
-    <row r="65" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="33" t="s">
+      <c r="G69" s="105"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="45"/>
+    </row>
+    <row r="70" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F70" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="G65" s="112"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="45"/>
-    </row>
-    <row r="66" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="112">
-        <v>167</v>
-      </c>
-      <c r="D66" s="113" t="s">
-        <v>594</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="112" t="s">
+      <c r="G70" s="105"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="45"/>
+    </row>
+    <row r="71" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B71" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="105">
+        <v>168</v>
+      </c>
+      <c r="D71" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="F71" s="33"/>
+      <c r="G71" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="H66" s="114" t="s">
+      <c r="H71" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="I66" s="111" t="s">
+      <c r="I71" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="J66" s="45"/>
-    </row>
-    <row r="67" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="F67" s="33" t="s">
+      <c r="J71" s="45"/>
+    </row>
+    <row r="72" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="F72" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="G67" s="112"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="45"/>
-    </row>
-    <row r="68" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B68" s="112"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="33" t="s">
+      <c r="G72" s="105"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="45"/>
+    </row>
+    <row r="73" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F73" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="G68" s="112"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="45"/>
-    </row>
-    <row r="69" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="112"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="33" t="s">
+      <c r="G73" s="105"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="45"/>
+    </row>
+    <row r="74" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F74" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="G69" s="112"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="45"/>
-    </row>
-    <row r="70" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="112"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="33" t="s">
+      <c r="G74" s="105"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="45"/>
+    </row>
+    <row r="75" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F75" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="G70" s="112"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="45"/>
-    </row>
-    <row r="71" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B71" s="112"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="33" t="s">
+      <c r="G75" s="105"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="45"/>
+    </row>
+    <row r="76" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F76" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="G71" s="112"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="45"/>
-    </row>
-    <row r="72" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="112">
-        <v>168</v>
-      </c>
-      <c r="D72" s="113" t="s">
-        <v>596</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="112" t="s">
+      <c r="G76" s="105"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="45"/>
+    </row>
+    <row r="77" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B77" s="105" t="s">
+        <v>632</v>
+      </c>
+      <c r="C77" s="93">
+        <v>169</v>
+      </c>
+      <c r="D77" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="F77" s="33"/>
+      <c r="G77" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H72" s="114" t="s">
+      <c r="H77" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I72" s="111" t="s">
+      <c r="I77" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="J72" s="45"/>
-    </row>
-    <row r="73" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="F73" s="33" t="s">
+      <c r="J77" s="45"/>
+    </row>
+    <row r="78" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B78" s="105"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="F78" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="G73" s="112"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="45"/>
-    </row>
-    <row r="74" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="112"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="33" t="s">
+      <c r="G78" s="94"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="45"/>
+    </row>
+    <row r="79" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="105"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F79" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="G74" s="112"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="45"/>
-    </row>
-    <row r="75" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="112"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="33" t="s">
+      <c r="G79" s="94"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="45"/>
+    </row>
+    <row r="80" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="105"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F80" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="G75" s="112"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="45"/>
-    </row>
-    <row r="76" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B76" s="112"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="33" t="s">
+      <c r="G80" s="94"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="45"/>
+    </row>
+    <row r="81" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="105"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F81" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="G76" s="112"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="45"/>
-    </row>
-    <row r="77" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="33" t="s">
+      <c r="G81" s="94"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="45"/>
+    </row>
+    <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="105"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="F77" s="33" t="s">
+      <c r="F82" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="G77" s="112"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="45"/>
-    </row>
-    <row r="78" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="112" t="s">
-        <v>632</v>
-      </c>
-      <c r="C78" s="93">
-        <v>169</v>
-      </c>
-      <c r="D78" s="96" t="s">
-        <v>602</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="F78" s="33"/>
-      <c r="G78" s="93" t="s">
+      <c r="G82" s="94"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="45"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="51"/>
+    </row>
+    <row r="84" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B84" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="46">
+        <v>170</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G84" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H78" s="99" t="s">
+      <c r="H84" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I78" s="111" t="s">
+      <c r="I84" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J78" s="45"/>
-    </row>
-    <row r="79" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="112"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="G79" s="94"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="80" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="112"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="G80" s="94"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="111"/>
-      <c r="J80" s="45"/>
-    </row>
-    <row r="81" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="112"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="G81" s="94"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="45"/>
-    </row>
-    <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="112"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="G82" s="94"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="111"/>
-      <c r="J82" s="45"/>
-    </row>
-    <row r="83" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="112"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="G83" s="94"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="111"/>
-      <c r="J83" s="45"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="51"/>
-    </row>
-    <row r="85" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J84" s="45"/>
+    </row>
+    <row r="85" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="45" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
       <c r="C85" s="46">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>93</v>
@@ -9562,16 +9562,16 @@
     </row>
     <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
-        <v>467</v>
+        <v>649</v>
       </c>
       <c r="C86" s="46">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F86" s="33" t="s">
         <v>352</v>
@@ -9589,19 +9589,19 @@
     </row>
     <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="45" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C87" s="46">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G87" s="45" t="s">
         <v>93</v>
@@ -9614,73 +9614,73 @@
       </c>
       <c r="J87" s="45"/>
     </row>
-    <row r="88" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B88" s="45" t="s">
-        <v>650</v>
-      </c>
-      <c r="C88" s="46">
-        <v>173</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G88" s="45" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="61" t="s">
+        <v>504</v>
+      </c>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+    </row>
+    <row r="89" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="51"/>
+    </row>
+    <row r="90" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B90" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="46">
+        <v>170</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="G90" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H88" s="40" t="s">
+      <c r="H90" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I88" s="33" t="s">
+      <c r="I90" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J88" s="45"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-    </row>
-    <row r="90" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="51"/>
+      <c r="J90" s="45"/>
     </row>
     <row r="91" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="46">
-        <v>170</v>
+        <v>469</v>
+      </c>
+      <c r="C91" s="80">
+        <v>171</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F91" s="33" t="s">
         <v>706</v>
@@ -9696,21 +9696,21 @@
       </c>
       <c r="J91" s="45"/>
     </row>
-    <row r="92" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="45" t="s">
-        <v>469</v>
+        <v>647</v>
       </c>
       <c r="C92" s="80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G92" s="45" t="s">
         <v>93</v>
@@ -9725,19 +9725,19 @@
     </row>
     <row r="93" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C93" s="80">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F93" s="33" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G93" s="45" t="s">
         <v>93</v>
@@ -9750,801 +9750,785 @@
       </c>
       <c r="J93" s="45"/>
     </row>
-    <row r="94" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B94" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="C94" s="80">
-        <v>173</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="G94" s="45" t="s">
+    <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+    </row>
+    <row r="95" spans="2:10" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="51"/>
+    </row>
+    <row r="96" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B96" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" s="80">
+        <v>174</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="G96" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H94" s="40" t="s">
+      <c r="H96" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="I94" s="33" t="s">
+      <c r="I96" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="J94" s="45"/>
-    </row>
-    <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="61"/>
-    </row>
-    <row r="96" spans="2:10" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="60" t="s">
+      <c r="J96" s="45"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="61" t="s">
+        <v>517</v>
+      </c>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+    </row>
+    <row r="98" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="51"/>
-    </row>
-    <row r="97" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B97" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="C97" s="80">
-        <v>174</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="G97" s="45" t="s">
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="51"/>
+    </row>
+    <row r="99" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B99" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" s="80">
+        <v>175</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G99" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H97" s="74" t="s">
+      <c r="H99" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I97" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="J97" s="45"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="61" t="s">
-        <v>517</v>
-      </c>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="61"/>
-    </row>
-    <row r="99" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="C99" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="51"/>
-    </row>
-    <row r="100" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B100" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="C100" s="80">
-        <v>175</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="G100" s="45" t="s">
+      <c r="I99" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="45"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+    </row>
+    <row r="101" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C101" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="D101" s="58"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="44"/>
+    </row>
+    <row r="102" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B102" s="102" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" s="93"/>
+      <c r="D102" s="99" t="s">
+        <v>640</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F102" s="45"/>
+      <c r="G102" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="40" t="s">
+      <c r="H102" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I100" s="33" t="s">
+      <c r="I102" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="45"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="61"/>
-    </row>
-    <row r="102" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" s="60" t="s">
-        <v>528</v>
-      </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="44"/>
-    </row>
-    <row r="103" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="90" t="s">
-        <v>347</v>
-      </c>
-      <c r="C103" s="93"/>
-      <c r="D103" s="96" t="s">
-        <v>640</v>
-      </c>
+      <c r="J102" s="45"/>
+    </row>
+    <row r="103" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B103" s="103"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="100"/>
       <c r="E103" s="33" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="F103" s="45"/>
-      <c r="G103" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H103" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I103" s="102" t="s">
-        <v>16</v>
-      </c>
+      <c r="G103" s="94"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="91"/>
       <c r="J103" s="45"/>
     </row>
     <row r="104" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="91"/>
+      <c r="B104" s="103"/>
       <c r="C104" s="94"/>
-      <c r="D104" s="97"/>
+      <c r="D104" s="100"/>
       <c r="E104" s="33" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="F104" s="45"/>
       <c r="G104" s="94"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="103"/>
+      <c r="H104" s="97"/>
+      <c r="I104" s="91"/>
       <c r="J104" s="45"/>
     </row>
     <row r="105" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B105" s="91"/>
+      <c r="B105" s="103"/>
       <c r="C105" s="94"/>
-      <c r="D105" s="97"/>
+      <c r="D105" s="100"/>
       <c r="E105" s="33" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F105" s="45"/>
       <c r="G105" s="94"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="103"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="91"/>
       <c r="J105" s="45"/>
     </row>
     <row r="106" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B106" s="91"/>
+      <c r="B106" s="103"/>
       <c r="C106" s="94"/>
-      <c r="D106" s="97"/>
+      <c r="D106" s="100"/>
       <c r="E106" s="33" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="F106" s="45"/>
       <c r="G106" s="94"/>
-      <c r="H106" s="100"/>
-      <c r="I106" s="103"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="91"/>
       <c r="J106" s="45"/>
     </row>
-    <row r="107" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B107" s="91"/>
-      <c r="C107" s="94"/>
-      <c r="D107" s="97"/>
+    <row r="107" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B107" s="104"/>
+      <c r="C107" s="95"/>
+      <c r="D107" s="101"/>
       <c r="E107" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="F107" s="45"/>
-      <c r="G107" s="94"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="103"/>
+        <v>642</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G107" s="95"/>
+      <c r="H107" s="98"/>
+      <c r="I107" s="92"/>
       <c r="J107" s="45"/>
     </row>
-    <row r="108" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B108" s="92"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="98"/>
-      <c r="E108" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="G108" s="95"/>
-      <c r="H108" s="101"/>
-      <c r="I108" s="104"/>
-      <c r="J108" s="45"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="61" t="s">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-    </row>
-    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="48" t="s">
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+    </row>
+    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="C110" s="60" t="s">
+      <c r="C109" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="D110" s="58"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="59"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="44"/>
-    </row>
-    <row r="111" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="93" t="s">
+      <c r="D109" s="58"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="59"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="44"/>
+    </row>
+    <row r="110" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B110" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="C111" s="93"/>
-      <c r="D111" s="96" t="s">
+      <c r="C110" s="93"/>
+      <c r="D110" s="99" t="s">
         <v>574</v>
       </c>
+      <c r="E110" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H110" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I110" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="J110" s="45"/>
+    </row>
+    <row r="111" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B111" s="94"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="100"/>
       <c r="E111" s="33" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F111" s="33"/>
-      <c r="G111" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H111" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I111" s="102" t="s">
-        <v>456</v>
-      </c>
+      <c r="G111" s="94"/>
+      <c r="H111" s="97"/>
+      <c r="I111" s="91"/>
       <c r="J111" s="45"/>
     </row>
     <row r="112" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B112" s="94"/>
       <c r="C112" s="94"/>
-      <c r="D112" s="97"/>
+      <c r="D112" s="100"/>
       <c r="E112" s="33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="94"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="103"/>
+      <c r="H112" s="97"/>
+      <c r="I112" s="91"/>
       <c r="J112" s="45"/>
     </row>
     <row r="113" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B113" s="94"/>
       <c r="C113" s="94"/>
-      <c r="D113" s="97"/>
+      <c r="D113" s="100"/>
       <c r="E113" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="94"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="103"/>
+      <c r="H113" s="97"/>
+      <c r="I113" s="91"/>
       <c r="J113" s="45"/>
     </row>
     <row r="114" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B114" s="94"/>
       <c r="C114" s="94"/>
-      <c r="D114" s="97"/>
+      <c r="D114" s="100"/>
       <c r="E114" s="33" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="94"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="103"/>
+      <c r="H114" s="97"/>
+      <c r="I114" s="91"/>
       <c r="J114" s="45"/>
     </row>
-    <row r="115" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B115" s="94"/>
-      <c r="C115" s="94"/>
-      <c r="D115" s="97"/>
+    <row r="115" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="101"/>
       <c r="E115" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="F115" s="33"/>
-      <c r="G115" s="94"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="103"/>
+        <v>577</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G115" s="95"/>
+      <c r="H115" s="98"/>
+      <c r="I115" s="92"/>
       <c r="J115" s="45"/>
     </row>
-    <row r="116" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="95"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="98"/>
-      <c r="E116" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G116" s="95"/>
-      <c r="H116" s="101"/>
-      <c r="I116" s="104"/>
-      <c r="J116" s="45"/>
-    </row>
-    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="48" t="s">
+    <row r="116" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="C117" s="60" t="s">
+      <c r="C116" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="44"/>
-    </row>
-    <row r="118" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="93" t="s">
+      <c r="D116" s="58"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="58"/>
+      <c r="J116" s="44"/>
+    </row>
+    <row r="117" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B117" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="C118" s="93"/>
-      <c r="D118" s="96" t="s">
+      <c r="C117" s="93"/>
+      <c r="D117" s="99" t="s">
         <v>578</v>
       </c>
+      <c r="E117" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F117" s="33"/>
+      <c r="G117" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H117" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I117" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="J117" s="45"/>
+    </row>
+    <row r="118" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B118" s="94"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="100"/>
       <c r="E118" s="33" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="F118" s="33"/>
-      <c r="G118" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H118" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I118" s="102" t="s">
-        <v>456</v>
-      </c>
+      <c r="G118" s="94"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="91"/>
       <c r="J118" s="45"/>
     </row>
     <row r="119" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="94"/>
       <c r="C119" s="94"/>
-      <c r="D119" s="97"/>
+      <c r="D119" s="100"/>
       <c r="E119" s="33" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="94"/>
-      <c r="H119" s="100"/>
-      <c r="I119" s="103"/>
+      <c r="H119" s="97"/>
+      <c r="I119" s="91"/>
       <c r="J119" s="45"/>
     </row>
     <row r="120" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="94"/>
       <c r="C120" s="94"/>
-      <c r="D120" s="97"/>
+      <c r="D120" s="100"/>
       <c r="E120" s="33" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="94"/>
-      <c r="H120" s="100"/>
-      <c r="I120" s="103"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="91"/>
       <c r="J120" s="45"/>
     </row>
     <row r="121" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B121" s="94"/>
       <c r="C121" s="94"/>
-      <c r="D121" s="97"/>
+      <c r="D121" s="100"/>
       <c r="E121" s="33" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="94"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="103"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="91"/>
       <c r="J121" s="45"/>
     </row>
-    <row r="122" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B122" s="94"/>
-      <c r="C122" s="94"/>
-      <c r="D122" s="97"/>
+    <row r="122" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B122" s="95"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="101"/>
       <c r="E122" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="94"/>
-      <c r="H122" s="100"/>
-      <c r="I122" s="103"/>
+        <v>577</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G122" s="95"/>
+      <c r="H122" s="98"/>
+      <c r="I122" s="92"/>
       <c r="J122" s="45"/>
     </row>
-    <row r="123" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="98"/>
-      <c r="E123" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="F123" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G123" s="95"/>
-      <c r="H123" s="101"/>
-      <c r="I123" s="104"/>
-      <c r="J123" s="45"/>
-    </row>
-    <row r="124" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="48" t="s">
+    <row r="123" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="C124" s="60" t="s">
+      <c r="C123" s="60" t="s">
         <v>526</v>
       </c>
-      <c r="D124" s="58"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="59"/>
-      <c r="I124" s="58"/>
-      <c r="J124" s="44"/>
-    </row>
-    <row r="125" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="93" t="s">
+      <c r="D123" s="58"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="59"/>
+      <c r="I123" s="58"/>
+      <c r="J123" s="44"/>
+    </row>
+    <row r="124" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B124" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="C125" s="93"/>
-      <c r="D125" s="96" t="s">
+      <c r="C124" s="93"/>
+      <c r="D124" s="99" t="s">
         <v>581</v>
       </c>
+      <c r="E124" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F124" s="33"/>
+      <c r="G124" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H124" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I124" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="94"/>
+      <c r="C125" s="94"/>
+      <c r="D125" s="100"/>
       <c r="E125" s="33" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="F125" s="33"/>
-      <c r="G125" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H125" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I125" s="102" t="s">
-        <v>456</v>
-      </c>
+      <c r="G125" s="94"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="91"/>
       <c r="J125" s="45"/>
     </row>
     <row r="126" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B126" s="94"/>
       <c r="C126" s="94"/>
-      <c r="D126" s="97"/>
+      <c r="D126" s="100"/>
       <c r="E126" s="33" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="94"/>
-      <c r="H126" s="100"/>
-      <c r="I126" s="103"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="91"/>
       <c r="J126" s="45"/>
     </row>
     <row r="127" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="94"/>
       <c r="C127" s="94"/>
-      <c r="D127" s="97"/>
+      <c r="D127" s="100"/>
       <c r="E127" s="33" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="94"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="103"/>
+      <c r="H127" s="97"/>
+      <c r="I127" s="91"/>
       <c r="J127" s="45"/>
     </row>
     <row r="128" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="94"/>
       <c r="C128" s="94"/>
-      <c r="D128" s="97"/>
+      <c r="D128" s="100"/>
       <c r="E128" s="33" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="94"/>
-      <c r="H128" s="100"/>
-      <c r="I128" s="103"/>
+      <c r="H128" s="97"/>
+      <c r="I128" s="91"/>
       <c r="J128" s="45"/>
     </row>
-    <row r="129" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B129" s="94"/>
-      <c r="C129" s="94"/>
-      <c r="D129" s="97"/>
+    <row r="129" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B129" s="95"/>
+      <c r="C129" s="95"/>
+      <c r="D129" s="101"/>
       <c r="E129" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="F129" s="33"/>
-      <c r="G129" s="94"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="103"/>
+        <v>577</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G129" s="95"/>
+      <c r="H129" s="98"/>
+      <c r="I129" s="92"/>
       <c r="J129" s="45"/>
     </row>
-    <row r="130" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="95"/>
-      <c r="C130" s="95"/>
-      <c r="D130" s="98"/>
-      <c r="E130" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="F130" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G130" s="95"/>
-      <c r="H130" s="101"/>
-      <c r="I130" s="104"/>
-      <c r="J130" s="45"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="61" t="s">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="C131" s="61"/>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="61"/>
-    </row>
-    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="48" t="s">
+      <c r="C130" s="61"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="61"/>
+      <c r="H130" s="61"/>
+      <c r="I130" s="61"/>
+      <c r="J130" s="61"/>
+    </row>
+    <row r="131" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="C132" s="60" t="s">
+      <c r="C131" s="60" t="s">
         <v>521</v>
       </c>
-      <c r="D132" s="58"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="59"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="44"/>
-    </row>
-    <row r="133" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="93" t="s">
+      <c r="D131" s="58"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="59"/>
+      <c r="I131" s="58"/>
+      <c r="J131" s="44"/>
+    </row>
+    <row r="132" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B132" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="C133" s="93">
+      <c r="C132" s="93">
         <v>176</v>
       </c>
-      <c r="D133" s="96" t="s">
+      <c r="D132" s="99" t="s">
         <v>585</v>
       </c>
+      <c r="E132" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H132" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I132" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="J132" s="45"/>
+    </row>
+    <row r="133" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="94"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="100"/>
       <c r="E133" s="33" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F133" s="33"/>
-      <c r="G133" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H133" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I133" s="102" t="s">
-        <v>136</v>
-      </c>
+      <c r="G133" s="94"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="91"/>
       <c r="J133" s="45"/>
     </row>
     <row r="134" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="94"/>
       <c r="C134" s="94"/>
-      <c r="D134" s="97"/>
+      <c r="D134" s="100"/>
       <c r="E134" s="33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="94"/>
-      <c r="H134" s="100"/>
-      <c r="I134" s="103"/>
+      <c r="H134" s="97"/>
+      <c r="I134" s="91"/>
       <c r="J134" s="45"/>
     </row>
     <row r="135" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="94"/>
       <c r="C135" s="94"/>
-      <c r="D135" s="97"/>
+      <c r="D135" s="100"/>
       <c r="E135" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="94"/>
-      <c r="H135" s="100"/>
-      <c r="I135" s="103"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="91"/>
       <c r="J135" s="45"/>
     </row>
     <row r="136" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B136" s="94"/>
       <c r="C136" s="94"/>
-      <c r="D136" s="97"/>
+      <c r="D136" s="100"/>
       <c r="E136" s="33" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="94"/>
-      <c r="H136" s="100"/>
-      <c r="I136" s="103"/>
+      <c r="H136" s="97"/>
+      <c r="I136" s="91"/>
       <c r="J136" s="45"/>
     </row>
-    <row r="137" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B137" s="94"/>
-      <c r="C137" s="94"/>
-      <c r="D137" s="97"/>
+    <row r="137" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B137" s="95"/>
+      <c r="C137" s="95"/>
+      <c r="D137" s="101"/>
       <c r="E137" s="33" t="s">
-        <v>558</v>
-      </c>
-      <c r="F137" s="33"/>
-      <c r="G137" s="94"/>
-      <c r="H137" s="100"/>
-      <c r="I137" s="103"/>
+        <v>559</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="G137" s="95"/>
+      <c r="H137" s="98"/>
+      <c r="I137" s="92"/>
       <c r="J137" s="45"/>
     </row>
-    <row r="138" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B138" s="95"/>
-      <c r="C138" s="95"/>
-      <c r="D138" s="98"/>
-      <c r="E138" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G138" s="95"/>
-      <c r="H138" s="101"/>
-      <c r="I138" s="104"/>
-      <c r="J138" s="45"/>
-    </row>
-    <row r="139" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="48" t="s">
+    <row r="138" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C139" s="60" t="s">
+      <c r="C138" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="D139" s="58"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="59"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="44"/>
-    </row>
-    <row r="140" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B140" s="93" t="s">
+      <c r="D138" s="58"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="59"/>
+      <c r="I138" s="58"/>
+      <c r="J138" s="44"/>
+    </row>
+    <row r="139" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B139" s="93" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="93">
+      <c r="C139" s="93">
         <v>177</v>
       </c>
-      <c r="D140" s="96" t="s">
+      <c r="D139" s="99" t="s">
         <v>609</v>
       </c>
+      <c r="E139" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F139" s="33"/>
+      <c r="G139" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H139" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I139" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="J139" s="45"/>
+    </row>
+    <row r="140" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B140" s="94"/>
+      <c r="C140" s="94"/>
+      <c r="D140" s="100"/>
       <c r="E140" s="33" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F140" s="33"/>
-      <c r="G140" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H140" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I140" s="102" t="s">
-        <v>136</v>
-      </c>
+      <c r="G140" s="94"/>
+      <c r="H140" s="97"/>
+      <c r="I140" s="91"/>
       <c r="J140" s="45"/>
     </row>
     <row r="141" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" s="94"/>
       <c r="C141" s="94"/>
-      <c r="D141" s="97"/>
+      <c r="D141" s="100"/>
       <c r="E141" s="33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="94"/>
-      <c r="H141" s="100"/>
-      <c r="I141" s="103"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="91"/>
       <c r="J141" s="45"/>
     </row>
     <row r="142" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B142" s="94"/>
       <c r="C142" s="94"/>
-      <c r="D142" s="97"/>
+      <c r="D142" s="100"/>
       <c r="E142" s="33" t="s">
-        <v>557</v>
+        <v>701</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="94"/>
-      <c r="H142" s="100"/>
-      <c r="I142" s="103"/>
+      <c r="H142" s="97"/>
+      <c r="I142" s="91"/>
       <c r="J142" s="45"/>
     </row>
-    <row r="143" spans="2:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="94"/>
-      <c r="C143" s="94"/>
-      <c r="D143" s="97"/>
+    <row r="143" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B143" s="95"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="101"/>
       <c r="E143" s="33" t="s">
-        <v>701</v>
-      </c>
-      <c r="F143" s="33"/>
-      <c r="G143" s="94"/>
-      <c r="H143" s="100"/>
-      <c r="I143" s="103"/>
+        <v>702</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="G143" s="95"/>
+      <c r="H143" s="98"/>
+      <c r="I143" s="92"/>
       <c r="J143" s="45"/>
     </row>
-    <row r="144" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B144" s="95"/>
-      <c r="C144" s="95"/>
-      <c r="D144" s="98"/>
-      <c r="E144" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="F144" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="G144" s="95"/>
-      <c r="H144" s="101"/>
-      <c r="I144" s="104"/>
+    <row r="144" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="33"/>
       <c r="J144" s="45"/>
     </row>
     <row r="145" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -10569,57 +10553,73 @@
       <c r="I146" s="33"/>
       <c r="J146" s="45"/>
     </row>
-    <row r="147" spans="2:10" ht="15.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="40"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="45"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="61" t="s">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="C148" s="61"/>
-      <c r="D148" s="61"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="61"/>
-      <c r="J148" s="61"/>
-    </row>
-    <row r="149" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="48" t="s">
+      <c r="C147" s="61"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
+    </row>
+    <row r="148" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="C149" s="60" t="s">
+      <c r="C148" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="D149" s="58"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="44"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="44"/>
+    </row>
+    <row r="149" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B149" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="C149" s="82">
+        <v>181</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="G149" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H149" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I149" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J149" s="45"/>
     </row>
     <row r="150" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B150" s="45" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C150" s="82">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F150" s="33" t="s">
         <v>652</v>
@@ -10637,16 +10637,16 @@
     </row>
     <row r="151" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B151" s="45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C151" s="82">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F151" s="33" t="s">
         <v>652</v>
@@ -10664,16 +10664,16 @@
     </row>
     <row r="152" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B152" s="45" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C152" s="82">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>654</v>
+        <v>307</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F152" s="33" t="s">
         <v>652</v>
@@ -10689,2082 +10689,2056 @@
       </c>
       <c r="J152" s="45"/>
     </row>
-    <row r="153" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B153" s="45" t="s">
-        <v>452</v>
-      </c>
-      <c r="C153" s="82">
-        <v>184</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="F153" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="G153" s="45" t="s">
+    <row r="153" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" s="60" t="s">
+        <v>530</v>
+      </c>
+      <c r="D153" s="58"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="58"/>
+      <c r="J153" s="44"/>
+    </row>
+    <row r="154" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B154" s="102" t="s">
+        <v>455</v>
+      </c>
+      <c r="C154" s="93">
+        <v>185</v>
+      </c>
+      <c r="D154" s="99" t="s">
+        <v>658</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="F154" s="45"/>
+      <c r="G154" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H153" s="40" t="s">
+      <c r="H154" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I153" s="33" t="s">
+      <c r="I154" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="J153" s="45"/>
-    </row>
-    <row r="154" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="C154" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="D154" s="58"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="58"/>
-      <c r="J154" s="44"/>
-    </row>
-    <row r="155" spans="2:10" ht="30" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B155" s="90" t="s">
-        <v>455</v>
-      </c>
-      <c r="C155" s="93">
-        <v>185</v>
-      </c>
-      <c r="D155" s="96" t="s">
-        <v>658</v>
-      </c>
+      <c r="J154" s="45"/>
+    </row>
+    <row r="155" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B155" s="103"/>
+      <c r="C155" s="94"/>
+      <c r="D155" s="100"/>
       <c r="E155" s="33" t="s">
-        <v>660</v>
+        <v>562</v>
       </c>
       <c r="F155" s="45"/>
-      <c r="G155" s="93" t="s">
+      <c r="G155" s="94"/>
+      <c r="H155" s="97"/>
+      <c r="I155" s="91"/>
+      <c r="J155" s="45"/>
+    </row>
+    <row r="156" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B156" s="103"/>
+      <c r="C156" s="94"/>
+      <c r="D156" s="100"/>
+      <c r="E156" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="F156" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="G156" s="94"/>
+      <c r="H156" s="97"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="45"/>
+    </row>
+    <row r="157" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B157" s="103"/>
+      <c r="C157" s="94"/>
+      <c r="D157" s="100"/>
+      <c r="E157" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="G157" s="94"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="91"/>
+      <c r="J157" s="45"/>
+    </row>
+    <row r="158" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B158" s="103"/>
+      <c r="C158" s="94"/>
+      <c r="D158" s="100"/>
+      <c r="E158" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="G158" s="94"/>
+      <c r="H158" s="97"/>
+      <c r="I158" s="91"/>
+      <c r="J158" s="45"/>
+    </row>
+    <row r="159" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B159" s="103"/>
+      <c r="C159" s="94"/>
+      <c r="D159" s="100"/>
+      <c r="E159" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="F159" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="G159" s="94"/>
+      <c r="H159" s="97"/>
+      <c r="I159" s="91"/>
+      <c r="J159" s="45"/>
+    </row>
+    <row r="160" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B160" s="104"/>
+      <c r="C160" s="95"/>
+      <c r="D160" s="101"/>
+      <c r="E160" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="G160" s="95"/>
+      <c r="H160" s="98"/>
+      <c r="I160" s="92"/>
+      <c r="J160" s="45"/>
+    </row>
+    <row r="161" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B161" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="C161" s="93">
+        <v>186</v>
+      </c>
+      <c r="D161" s="99" t="s">
+        <v>713</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="F161" s="45"/>
+      <c r="G161" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H155" s="99" t="s">
+      <c r="H161" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I155" s="102" t="s">
+      <c r="I161" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="J155" s="45"/>
-    </row>
-    <row r="156" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B156" s="91"/>
-      <c r="C156" s="94"/>
-      <c r="D156" s="97"/>
-      <c r="E156" s="33" t="s">
+      <c r="J161" s="45"/>
+    </row>
+    <row r="162" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B162" s="103"/>
+      <c r="C162" s="94"/>
+      <c r="D162" s="100"/>
+      <c r="E162" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F156" s="45"/>
-      <c r="G156" s="94"/>
-      <c r="H156" s="100"/>
-      <c r="I156" s="103"/>
-      <c r="J156" s="45"/>
-    </row>
-    <row r="157" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B157" s="91"/>
-      <c r="C157" s="94"/>
-      <c r="D157" s="97"/>
-      <c r="E157" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="F157" s="33" t="s">
+      <c r="F162" s="45"/>
+      <c r="G162" s="94"/>
+      <c r="H162" s="97"/>
+      <c r="I162" s="91"/>
+      <c r="J162" s="45"/>
+    </row>
+    <row r="163" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B163" s="103"/>
+      <c r="C163" s="94"/>
+      <c r="D163" s="100"/>
+      <c r="E163" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="F163" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="G157" s="94"/>
-      <c r="H157" s="100"/>
-      <c r="I157" s="103"/>
-      <c r="J157" s="45"/>
-    </row>
-    <row r="158" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B158" s="91"/>
-      <c r="C158" s="94"/>
-      <c r="D158" s="97"/>
-      <c r="E158" s="33" t="s">
+      <c r="G163" s="94"/>
+      <c r="H163" s="97"/>
+      <c r="I163" s="91"/>
+      <c r="J163" s="45"/>
+    </row>
+    <row r="164" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B164" s="103"/>
+      <c r="C164" s="94"/>
+      <c r="D164" s="100"/>
+      <c r="E164" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="F158" s="33" t="s">
+      <c r="F164" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="G158" s="94"/>
-      <c r="H158" s="100"/>
-      <c r="I158" s="103"/>
-      <c r="J158" s="45"/>
-    </row>
-    <row r="159" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B159" s="91"/>
-      <c r="C159" s="94"/>
-      <c r="D159" s="97"/>
-      <c r="E159" s="33" t="s">
+      <c r="G164" s="94"/>
+      <c r="H164" s="97"/>
+      <c r="I164" s="91"/>
+      <c r="J164" s="45"/>
+    </row>
+    <row r="165" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B165" s="103"/>
+      <c r="C165" s="94"/>
+      <c r="D165" s="100"/>
+      <c r="E165" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="F159" s="33" t="s">
+      <c r="F165" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="G159" s="94"/>
-      <c r="H159" s="100"/>
-      <c r="I159" s="103"/>
-      <c r="J159" s="45"/>
-    </row>
-    <row r="160" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B160" s="91"/>
-      <c r="C160" s="94"/>
-      <c r="D160" s="97"/>
-      <c r="E160" s="33" t="s">
+      <c r="G165" s="94"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="91"/>
+      <c r="J165" s="45"/>
+    </row>
+    <row r="166" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B166" s="103"/>
+      <c r="C166" s="94"/>
+      <c r="D166" s="100"/>
+      <c r="E166" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="F160" s="33" t="s">
+      <c r="F166" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="G160" s="94"/>
-      <c r="H160" s="100"/>
-      <c r="I160" s="103"/>
-      <c r="J160" s="45"/>
-    </row>
-    <row r="161" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B161" s="92"/>
-      <c r="C161" s="95"/>
-      <c r="D161" s="98"/>
-      <c r="E161" s="33" t="s">
+      <c r="G166" s="94"/>
+      <c r="H166" s="97"/>
+      <c r="I166" s="91"/>
+      <c r="J166" s="45"/>
+    </row>
+    <row r="167" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B167" s="104"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="101"/>
+      <c r="E167" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="F161" s="33" t="s">
+      <c r="F167" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="G161" s="95"/>
-      <c r="H161" s="101"/>
-      <c r="I161" s="104"/>
-      <c r="J161" s="45"/>
-    </row>
-    <row r="162" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B162" s="90" t="s">
-        <v>487</v>
-      </c>
-      <c r="C162" s="93">
-        <v>186</v>
-      </c>
-      <c r="D162" s="96" t="s">
-        <v>713</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="F162" s="45"/>
-      <c r="G162" s="93" t="s">
+      <c r="G167" s="95"/>
+      <c r="H167" s="98"/>
+      <c r="I167" s="92"/>
+      <c r="J167" s="45"/>
+    </row>
+    <row r="168" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B168" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="C168" s="93">
+        <v>187</v>
+      </c>
+      <c r="D168" s="99" t="s">
+        <v>714</v>
+      </c>
+      <c r="E168" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="F168" s="45"/>
+      <c r="G168" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H162" s="99" t="s">
+      <c r="H168" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I162" s="102" t="s">
+      <c r="I168" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="J162" s="45"/>
-    </row>
-    <row r="163" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B163" s="91"/>
-      <c r="C163" s="94"/>
-      <c r="D163" s="97"/>
-      <c r="E163" s="33" t="s">
+      <c r="J168" s="45"/>
+    </row>
+    <row r="169" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B169" s="103"/>
+      <c r="C169" s="94"/>
+      <c r="D169" s="100"/>
+      <c r="E169" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F163" s="45"/>
-      <c r="G163" s="94"/>
-      <c r="H163" s="100"/>
-      <c r="I163" s="103"/>
-      <c r="J163" s="45"/>
-    </row>
-    <row r="164" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B164" s="91"/>
-      <c r="C164" s="94"/>
-      <c r="D164" s="97"/>
-      <c r="E164" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="F164" s="33" t="s">
+      <c r="F169" s="45"/>
+      <c r="G169" s="94"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="91"/>
+      <c r="J169" s="45"/>
+    </row>
+    <row r="170" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B170" s="103"/>
+      <c r="C170" s="94"/>
+      <c r="D170" s="100"/>
+      <c r="E170" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="F170" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="G164" s="94"/>
-      <c r="H164" s="100"/>
-      <c r="I164" s="103"/>
-      <c r="J164" s="45"/>
-    </row>
-    <row r="165" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B165" s="91"/>
-      <c r="C165" s="94"/>
-      <c r="D165" s="97"/>
-      <c r="E165" s="33" t="s">
+      <c r="G170" s="94"/>
+      <c r="H170" s="97"/>
+      <c r="I170" s="91"/>
+      <c r="J170" s="45"/>
+    </row>
+    <row r="171" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B171" s="103"/>
+      <c r="C171" s="94"/>
+      <c r="D171" s="100"/>
+      <c r="E171" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="F165" s="33" t="s">
+      <c r="F171" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="G165" s="94"/>
-      <c r="H165" s="100"/>
-      <c r="I165" s="103"/>
-      <c r="J165" s="45"/>
-    </row>
-    <row r="166" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B166" s="91"/>
-      <c r="C166" s="94"/>
-      <c r="D166" s="97"/>
-      <c r="E166" s="33" t="s">
+      <c r="G171" s="94"/>
+      <c r="H171" s="97"/>
+      <c r="I171" s="91"/>
+      <c r="J171" s="45"/>
+    </row>
+    <row r="172" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B172" s="103"/>
+      <c r="C172" s="94"/>
+      <c r="D172" s="100"/>
+      <c r="E172" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="F166" s="33" t="s">
+      <c r="F172" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="G166" s="94"/>
-      <c r="H166" s="100"/>
-      <c r="I166" s="103"/>
-      <c r="J166" s="45"/>
-    </row>
-    <row r="167" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B167" s="91"/>
-      <c r="C167" s="94"/>
-      <c r="D167" s="97"/>
-      <c r="E167" s="33" t="s">
+      <c r="G172" s="94"/>
+      <c r="H172" s="97"/>
+      <c r="I172" s="91"/>
+      <c r="J172" s="45"/>
+    </row>
+    <row r="173" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B173" s="103"/>
+      <c r="C173" s="94"/>
+      <c r="D173" s="100"/>
+      <c r="E173" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="F167" s="33" t="s">
+      <c r="F173" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="G167" s="94"/>
-      <c r="H167" s="100"/>
-      <c r="I167" s="103"/>
-      <c r="J167" s="45"/>
-    </row>
-    <row r="168" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B168" s="92"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="98"/>
-      <c r="E168" s="33" t="s">
+      <c r="G173" s="94"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="91"/>
+      <c r="J173" s="45"/>
+    </row>
+    <row r="174" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B174" s="104"/>
+      <c r="C174" s="95"/>
+      <c r="D174" s="101"/>
+      <c r="E174" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="F168" s="33" t="s">
+      <c r="F174" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="G168" s="95"/>
-      <c r="H168" s="101"/>
-      <c r="I168" s="104"/>
-      <c r="J168" s="45"/>
-    </row>
-    <row r="169" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B169" s="90" t="s">
-        <v>488</v>
-      </c>
-      <c r="C169" s="93">
-        <v>187</v>
-      </c>
-      <c r="D169" s="96" t="s">
-        <v>714</v>
-      </c>
-      <c r="E169" s="33" t="s">
-        <v>665</v>
-      </c>
-      <c r="F169" s="45"/>
-      <c r="G169" s="93" t="s">
+      <c r="G174" s="95"/>
+      <c r="H174" s="98"/>
+      <c r="I174" s="92"/>
+      <c r="J174" s="45"/>
+    </row>
+    <row r="175" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B175" s="102" t="s">
+        <v>489</v>
+      </c>
+      <c r="C175" s="93">
+        <v>188</v>
+      </c>
+      <c r="D175" s="99" t="s">
+        <v>715</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="F175" s="45"/>
+      <c r="G175" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H169" s="99" t="s">
+      <c r="H175" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I169" s="102" t="s">
+      <c r="I175" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="J169" s="45"/>
-    </row>
-    <row r="170" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B170" s="91"/>
-      <c r="C170" s="94"/>
-      <c r="D170" s="97"/>
-      <c r="E170" s="33" t="s">
+      <c r="J175" s="45"/>
+    </row>
+    <row r="176" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B176" s="103"/>
+      <c r="C176" s="94"/>
+      <c r="D176" s="100"/>
+      <c r="E176" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="F170" s="45"/>
-      <c r="G170" s="94"/>
-      <c r="H170" s="100"/>
-      <c r="I170" s="103"/>
-      <c r="J170" s="45"/>
-    </row>
-    <row r="171" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B171" s="91"/>
-      <c r="C171" s="94"/>
-      <c r="D171" s="97"/>
-      <c r="E171" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F171" s="33" t="s">
+      <c r="F176" s="45"/>
+      <c r="G176" s="94"/>
+      <c r="H176" s="97"/>
+      <c r="I176" s="91"/>
+      <c r="J176" s="45"/>
+    </row>
+    <row r="177" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B177" s="103"/>
+      <c r="C177" s="94"/>
+      <c r="D177" s="100"/>
+      <c r="E177" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F177" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="G171" s="94"/>
-      <c r="H171" s="100"/>
-      <c r="I171" s="103"/>
-      <c r="J171" s="45"/>
-    </row>
-    <row r="172" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B172" s="91"/>
-      <c r="C172" s="94"/>
-      <c r="D172" s="97"/>
-      <c r="E172" s="33" t="s">
+      <c r="G177" s="94"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="45"/>
+    </row>
+    <row r="178" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B178" s="103"/>
+      <c r="C178" s="94"/>
+      <c r="D178" s="100"/>
+      <c r="E178" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="F172" s="33" t="s">
+      <c r="F178" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="G172" s="94"/>
-      <c r="H172" s="100"/>
-      <c r="I172" s="103"/>
-      <c r="J172" s="45"/>
-    </row>
-    <row r="173" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B173" s="91"/>
-      <c r="C173" s="94"/>
-      <c r="D173" s="97"/>
-      <c r="E173" s="33" t="s">
+      <c r="G178" s="94"/>
+      <c r="H178" s="97"/>
+      <c r="I178" s="91"/>
+      <c r="J178" s="45"/>
+    </row>
+    <row r="179" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B179" s="103"/>
+      <c r="C179" s="94"/>
+      <c r="D179" s="100"/>
+      <c r="E179" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="F173" s="33" t="s">
+      <c r="F179" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="G173" s="94"/>
-      <c r="H173" s="100"/>
-      <c r="I173" s="103"/>
-      <c r="J173" s="45"/>
-    </row>
-    <row r="174" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B174" s="91"/>
-      <c r="C174" s="94"/>
-      <c r="D174" s="97"/>
-      <c r="E174" s="33" t="s">
+      <c r="G179" s="94"/>
+      <c r="H179" s="97"/>
+      <c r="I179" s="91"/>
+      <c r="J179" s="45"/>
+    </row>
+    <row r="180" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B180" s="103"/>
+      <c r="C180" s="94"/>
+      <c r="D180" s="100"/>
+      <c r="E180" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="F174" s="33" t="s">
+      <c r="F180" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="G174" s="94"/>
-      <c r="H174" s="100"/>
-      <c r="I174" s="103"/>
-      <c r="J174" s="45"/>
-    </row>
-    <row r="175" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B175" s="92"/>
-      <c r="C175" s="95"/>
-      <c r="D175" s="98"/>
-      <c r="E175" s="33" t="s">
+      <c r="G180" s="94"/>
+      <c r="H180" s="97"/>
+      <c r="I180" s="91"/>
+      <c r="J180" s="45"/>
+    </row>
+    <row r="181" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B181" s="104"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="101"/>
+      <c r="E181" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="F175" s="33" t="s">
+      <c r="F181" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="G175" s="95"/>
-      <c r="H175" s="101"/>
-      <c r="I175" s="104"/>
-      <c r="J175" s="45"/>
-    </row>
-    <row r="176" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B176" s="90" t="s">
-        <v>489</v>
-      </c>
-      <c r="C176" s="93">
-        <v>188</v>
-      </c>
-      <c r="D176" s="96" t="s">
-        <v>715</v>
-      </c>
-      <c r="E176" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="F176" s="45"/>
-      <c r="G176" s="93" t="s">
+      <c r="G181" s="95"/>
+      <c r="H181" s="98"/>
+      <c r="I181" s="92"/>
+      <c r="J181" s="45"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="C182" s="61"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="61"/>
+      <c r="F182" s="61"/>
+      <c r="G182" s="61"/>
+      <c r="H182" s="61"/>
+      <c r="I182" s="61"/>
+      <c r="J182" s="61"/>
+    </row>
+    <row r="183" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="C183" s="60" t="s">
+        <v>536</v>
+      </c>
+      <c r="D183" s="58"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="58"/>
+      <c r="J183" s="44"/>
+    </row>
+    <row r="184" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B184" s="102" t="s">
+        <v>499</v>
+      </c>
+      <c r="C184" s="93">
+        <v>189</v>
+      </c>
+      <c r="D184" s="99" t="s">
+        <v>666</v>
+      </c>
+      <c r="E184" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F184" s="45"/>
+      <c r="G184" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H176" s="99" t="s">
+      <c r="H184" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="I176" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="J176" s="45"/>
-    </row>
-    <row r="177" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B177" s="91"/>
-      <c r="C177" s="94"/>
-      <c r="D177" s="97"/>
-      <c r="E177" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="F177" s="45"/>
-      <c r="G177" s="94"/>
-      <c r="H177" s="100"/>
-      <c r="I177" s="103"/>
-      <c r="J177" s="45"/>
-    </row>
-    <row r="178" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B178" s="91"/>
-      <c r="C178" s="94"/>
-      <c r="D178" s="97"/>
-      <c r="E178" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="F178" s="33" t="s">
-        <v>661</v>
-      </c>
-      <c r="G178" s="94"/>
-      <c r="H178" s="100"/>
-      <c r="I178" s="103"/>
-      <c r="J178" s="45"/>
-    </row>
-    <row r="179" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B179" s="91"/>
-      <c r="C179" s="94"/>
-      <c r="D179" s="97"/>
-      <c r="E179" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="F179" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="G179" s="94"/>
-      <c r="H179" s="100"/>
-      <c r="I179" s="103"/>
-      <c r="J179" s="45"/>
-    </row>
-    <row r="180" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B180" s="91"/>
-      <c r="C180" s="94"/>
-      <c r="D180" s="97"/>
-      <c r="E180" s="33" t="s">
-        <v>698</v>
-      </c>
-      <c r="F180" s="33" t="s">
-        <v>663</v>
-      </c>
-      <c r="G180" s="94"/>
-      <c r="H180" s="100"/>
-      <c r="I180" s="103"/>
-      <c r="J180" s="45"/>
-    </row>
-    <row r="181" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B181" s="91"/>
-      <c r="C181" s="94"/>
-      <c r="D181" s="97"/>
-      <c r="E181" s="33" t="s">
-        <v>699</v>
-      </c>
-      <c r="F181" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="G181" s="94"/>
-      <c r="H181" s="100"/>
-      <c r="I181" s="103"/>
-      <c r="J181" s="45"/>
-    </row>
-    <row r="182" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B182" s="92"/>
-      <c r="C182" s="95"/>
-      <c r="D182" s="98"/>
-      <c r="E182" s="33" t="s">
-        <v>700</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="G182" s="95"/>
-      <c r="H182" s="101"/>
-      <c r="I182" s="104"/>
-      <c r="J182" s="45"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="61" t="s">
-        <v>508</v>
-      </c>
-      <c r="C183" s="61"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="61"/>
-      <c r="F183" s="61"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="61"/>
-      <c r="I183" s="61"/>
-      <c r="J183" s="61"/>
-    </row>
-    <row r="184" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="C184" s="60" t="s">
-        <v>536</v>
-      </c>
-      <c r="D184" s="58"/>
-      <c r="E184" s="44"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="58"/>
-      <c r="J184" s="44"/>
+      <c r="I184" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J184" s="45"/>
     </row>
     <row r="185" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B185" s="90" t="s">
-        <v>499</v>
-      </c>
-      <c r="C185" s="93">
-        <v>189</v>
-      </c>
-      <c r="D185" s="96" t="s">
-        <v>666</v>
-      </c>
-      <c r="E185" s="33" t="s">
-        <v>637</v>
+      <c r="B185" s="103"/>
+      <c r="C185" s="94"/>
+      <c r="D185" s="100"/>
+      <c r="E185" s="45" t="s">
+        <v>573</v>
       </c>
       <c r="F185" s="45"/>
-      <c r="G185" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H185" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I185" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G185" s="94"/>
+      <c r="H185" s="97"/>
+      <c r="I185" s="91"/>
       <c r="J185" s="45"/>
     </row>
     <row r="186" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B186" s="91"/>
+      <c r="B186" s="103"/>
       <c r="C186" s="94"/>
-      <c r="D186" s="97"/>
+      <c r="D186" s="100"/>
       <c r="E186" s="45" t="s">
-        <v>573</v>
+        <v>667</v>
       </c>
       <c r="F186" s="45"/>
       <c r="G186" s="94"/>
-      <c r="H186" s="100"/>
-      <c r="I186" s="103"/>
+      <c r="H186" s="97"/>
+      <c r="I186" s="91"/>
       <c r="J186" s="45"/>
     </row>
-    <row r="187" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B187" s="91"/>
+    <row r="187" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B187" s="103"/>
       <c r="C187" s="94"/>
-      <c r="D187" s="97"/>
+      <c r="D187" s="100"/>
       <c r="E187" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="F187" s="45"/>
+        <v>668</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G187" s="94"/>
-      <c r="H187" s="100"/>
-      <c r="I187" s="103"/>
+      <c r="H187" s="97"/>
+      <c r="I187" s="91"/>
       <c r="J187" s="45"/>
     </row>
     <row r="188" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B188" s="91"/>
+      <c r="B188" s="103"/>
       <c r="C188" s="94"/>
-      <c r="D188" s="97"/>
-      <c r="E188" s="45" t="s">
-        <v>668</v>
+      <c r="D188" s="100"/>
+      <c r="E188" s="33" t="s">
+        <v>669</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G188" s="94"/>
-      <c r="H188" s="100"/>
-      <c r="I188" s="103"/>
+      <c r="H188" s="97"/>
+      <c r="I188" s="91"/>
       <c r="J188" s="45"/>
     </row>
-    <row r="189" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B189" s="91"/>
-      <c r="C189" s="94"/>
-      <c r="D189" s="97"/>
-      <c r="E189" s="33" t="s">
-        <v>669</v>
+    <row r="189" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B189" s="104"/>
+      <c r="C189" s="95"/>
+      <c r="D189" s="101"/>
+      <c r="E189" s="45" t="s">
+        <v>670</v>
       </c>
       <c r="F189" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G189" s="94"/>
-      <c r="H189" s="100"/>
-      <c r="I189" s="103"/>
+        <v>671</v>
+      </c>
+      <c r="G189" s="95"/>
+      <c r="H189" s="98"/>
+      <c r="I189" s="92"/>
       <c r="J189" s="45"/>
     </row>
-    <row r="190" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B190" s="92"/>
-      <c r="C190" s="95"/>
-      <c r="D190" s="98"/>
-      <c r="E190" s="45" t="s">
-        <v>670</v>
-      </c>
-      <c r="F190" s="33" t="s">
-        <v>671</v>
-      </c>
-      <c r="G190" s="95"/>
-      <c r="H190" s="101"/>
-      <c r="I190" s="104"/>
-      <c r="J190" s="45"/>
-    </row>
-    <row r="191" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="48" t="s">
+    <row r="190" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="C191" s="60" t="s">
+      <c r="C190" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="D191" s="58"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="44"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="44"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="59"/>
+      <c r="I190" s="58"/>
+      <c r="J190" s="44"/>
+    </row>
+    <row r="191" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B191" s="102" t="s">
+        <v>672</v>
+      </c>
+      <c r="C191" s="93">
+        <v>190</v>
+      </c>
+      <c r="D191" s="99" t="s">
+        <v>673</v>
+      </c>
+      <c r="E191" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F191" s="45"/>
+      <c r="G191" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H191" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I191" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J191" s="45"/>
     </row>
     <row r="192" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B192" s="90" t="s">
-        <v>672</v>
-      </c>
-      <c r="C192" s="93">
-        <v>190</v>
-      </c>
-      <c r="D192" s="96" t="s">
-        <v>673</v>
-      </c>
-      <c r="E192" s="33" t="s">
-        <v>637</v>
+      <c r="B192" s="103"/>
+      <c r="C192" s="94"/>
+      <c r="D192" s="100"/>
+      <c r="E192" s="45" t="s">
+        <v>595</v>
       </c>
       <c r="F192" s="45"/>
-      <c r="G192" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H192" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I192" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G192" s="94"/>
+      <c r="H192" s="97"/>
+      <c r="I192" s="91"/>
       <c r="J192" s="45"/>
     </row>
     <row r="193" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B193" s="91"/>
+      <c r="B193" s="103"/>
       <c r="C193" s="94"/>
-      <c r="D193" s="97"/>
+      <c r="D193" s="100"/>
       <c r="E193" s="45" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="F193" s="45"/>
       <c r="G193" s="94"/>
-      <c r="H193" s="100"/>
-      <c r="I193" s="103"/>
+      <c r="H193" s="97"/>
+      <c r="I193" s="91"/>
       <c r="J193" s="45"/>
     </row>
     <row r="194" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B194" s="91"/>
+      <c r="B194" s="103"/>
       <c r="C194" s="94"/>
-      <c r="D194" s="97"/>
+      <c r="D194" s="100"/>
       <c r="E194" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="F194" s="45"/>
+        <v>668</v>
+      </c>
+      <c r="F194" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G194" s="94"/>
-      <c r="H194" s="100"/>
-      <c r="I194" s="103"/>
+      <c r="H194" s="97"/>
+      <c r="I194" s="91"/>
       <c r="J194" s="45"/>
     </row>
     <row r="195" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="91"/>
+      <c r="B195" s="103"/>
       <c r="C195" s="94"/>
-      <c r="D195" s="97"/>
-      <c r="E195" s="45" t="s">
-        <v>668</v>
+      <c r="D195" s="100"/>
+      <c r="E195" s="33" t="s">
+        <v>669</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G195" s="94"/>
-      <c r="H195" s="100"/>
-      <c r="I195" s="103"/>
+      <c r="H195" s="97"/>
+      <c r="I195" s="91"/>
       <c r="J195" s="45"/>
     </row>
-    <row r="196" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="91"/>
-      <c r="C196" s="94"/>
-      <c r="D196" s="97"/>
-      <c r="E196" s="33" t="s">
-        <v>669</v>
+    <row r="196" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B196" s="104"/>
+      <c r="C196" s="95"/>
+      <c r="D196" s="101"/>
+      <c r="E196" s="45" t="s">
+        <v>670</v>
       </c>
       <c r="F196" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G196" s="94"/>
-      <c r="H196" s="100"/>
-      <c r="I196" s="103"/>
+        <v>674</v>
+      </c>
+      <c r="G196" s="95"/>
+      <c r="H196" s="98"/>
+      <c r="I196" s="92"/>
       <c r="J196" s="45"/>
     </row>
-    <row r="197" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B197" s="92"/>
-      <c r="C197" s="95"/>
-      <c r="D197" s="98"/>
-      <c r="E197" s="45" t="s">
-        <v>670</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>674</v>
-      </c>
-      <c r="G197" s="95"/>
-      <c r="H197" s="101"/>
-      <c r="I197" s="104"/>
-      <c r="J197" s="45"/>
-    </row>
-    <row r="198" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="48" t="s">
+    <row r="197" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="C198" s="60" t="s">
+      <c r="C197" s="60" t="s">
         <v>538</v>
       </c>
-      <c r="D198" s="58"/>
-      <c r="E198" s="44"/>
-      <c r="F198" s="44"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="58"/>
-      <c r="J198" s="44"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="44"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="59"/>
+      <c r="I197" s="58"/>
+      <c r="J197" s="44"/>
+    </row>
+    <row r="198" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B198" s="102" t="s">
+        <v>675</v>
+      </c>
+      <c r="C198" s="93">
+        <v>191</v>
+      </c>
+      <c r="D198" s="99" t="s">
+        <v>676</v>
+      </c>
+      <c r="E198" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F198" s="45"/>
+      <c r="G198" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H198" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I198" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J198" s="45"/>
     </row>
     <row r="199" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="90" t="s">
-        <v>675</v>
-      </c>
-      <c r="C199" s="93">
-        <v>191</v>
-      </c>
-      <c r="D199" s="96" t="s">
-        <v>676</v>
-      </c>
-      <c r="E199" s="33" t="s">
-        <v>637</v>
+      <c r="B199" s="103"/>
+      <c r="C199" s="94"/>
+      <c r="D199" s="100"/>
+      <c r="E199" s="45" t="s">
+        <v>599</v>
       </c>
       <c r="F199" s="45"/>
-      <c r="G199" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H199" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I199" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G199" s="94"/>
+      <c r="H199" s="97"/>
+      <c r="I199" s="91"/>
       <c r="J199" s="45"/>
     </row>
     <row r="200" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B200" s="91"/>
+      <c r="B200" s="103"/>
       <c r="C200" s="94"/>
-      <c r="D200" s="97"/>
+      <c r="D200" s="100"/>
       <c r="E200" s="45" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="F200" s="45"/>
       <c r="G200" s="94"/>
-      <c r="H200" s="100"/>
-      <c r="I200" s="103"/>
+      <c r="H200" s="97"/>
+      <c r="I200" s="91"/>
       <c r="J200" s="45"/>
     </row>
     <row r="201" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B201" s="91"/>
+      <c r="B201" s="103"/>
       <c r="C201" s="94"/>
-      <c r="D201" s="97"/>
+      <c r="D201" s="100"/>
       <c r="E201" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="F201" s="45"/>
+        <v>668</v>
+      </c>
+      <c r="F201" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G201" s="94"/>
-      <c r="H201" s="100"/>
-      <c r="I201" s="103"/>
+      <c r="H201" s="97"/>
+      <c r="I201" s="91"/>
       <c r="J201" s="45"/>
     </row>
     <row r="202" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B202" s="91"/>
+      <c r="B202" s="103"/>
       <c r="C202" s="94"/>
-      <c r="D202" s="97"/>
-      <c r="E202" s="45" t="s">
-        <v>668</v>
+      <c r="D202" s="100"/>
+      <c r="E202" s="33" t="s">
+        <v>669</v>
       </c>
       <c r="F202" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G202" s="94"/>
-      <c r="H202" s="100"/>
-      <c r="I202" s="103"/>
+      <c r="H202" s="97"/>
+      <c r="I202" s="91"/>
       <c r="J202" s="45"/>
     </row>
-    <row r="203" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B203" s="91"/>
-      <c r="C203" s="94"/>
-      <c r="D203" s="97"/>
-      <c r="E203" s="33" t="s">
-        <v>669</v>
+    <row r="203" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B203" s="104"/>
+      <c r="C203" s="95"/>
+      <c r="D203" s="101"/>
+      <c r="E203" s="45" t="s">
+        <v>670</v>
       </c>
       <c r="F203" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G203" s="94"/>
-      <c r="H203" s="100"/>
-      <c r="I203" s="103"/>
+        <v>677</v>
+      </c>
+      <c r="G203" s="95"/>
+      <c r="H203" s="98"/>
+      <c r="I203" s="92"/>
       <c r="J203" s="45"/>
     </row>
-    <row r="204" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B204" s="92"/>
-      <c r="C204" s="95"/>
-      <c r="D204" s="98"/>
-      <c r="E204" s="45" t="s">
-        <v>670</v>
-      </c>
-      <c r="F204" s="33" t="s">
-        <v>677</v>
-      </c>
-      <c r="G204" s="95"/>
-      <c r="H204" s="101"/>
-      <c r="I204" s="104"/>
-      <c r="J204" s="45"/>
-    </row>
-    <row r="205" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="48" t="s">
+    <row r="204" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="C205" s="60" t="s">
+      <c r="C204" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="D205" s="58"/>
-      <c r="E205" s="44"/>
-      <c r="F205" s="44"/>
-      <c r="G205" s="44"/>
-      <c r="H205" s="59"/>
-      <c r="I205" s="58"/>
-      <c r="J205" s="44"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="44"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="44"/>
+      <c r="H204" s="59"/>
+      <c r="I204" s="58"/>
+      <c r="J204" s="44"/>
+    </row>
+    <row r="205" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B205" s="102" t="s">
+        <v>684</v>
+      </c>
+      <c r="C205" s="93">
+        <v>192</v>
+      </c>
+      <c r="D205" s="99" t="s">
+        <v>687</v>
+      </c>
+      <c r="E205" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F205" s="45"/>
+      <c r="G205" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H205" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I205" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J205" s="45"/>
     </row>
     <row r="206" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B206" s="90" t="s">
-        <v>684</v>
-      </c>
-      <c r="C206" s="93">
-        <v>192</v>
-      </c>
-      <c r="D206" s="96" t="s">
-        <v>687</v>
-      </c>
-      <c r="E206" s="33" t="s">
-        <v>637</v>
+      <c r="B206" s="103"/>
+      <c r="C206" s="94"/>
+      <c r="D206" s="100"/>
+      <c r="E206" s="45" t="s">
+        <v>601</v>
       </c>
       <c r="F206" s="45"/>
-      <c r="G206" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H206" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I206" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G206" s="94"/>
+      <c r="H206" s="97"/>
+      <c r="I206" s="91"/>
       <c r="J206" s="45"/>
     </row>
     <row r="207" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B207" s="91"/>
+      <c r="B207" s="103"/>
       <c r="C207" s="94"/>
-      <c r="D207" s="97"/>
+      <c r="D207" s="100"/>
       <c r="E207" s="45" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="F207" s="45"/>
       <c r="G207" s="94"/>
-      <c r="H207" s="100"/>
-      <c r="I207" s="103"/>
+      <c r="H207" s="97"/>
+      <c r="I207" s="91"/>
       <c r="J207" s="45"/>
     </row>
-    <row r="208" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B208" s="91"/>
+    <row r="208" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B208" s="103"/>
       <c r="C208" s="94"/>
-      <c r="D208" s="97"/>
+      <c r="D208" s="100"/>
       <c r="E208" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="F208" s="45"/>
+        <v>668</v>
+      </c>
+      <c r="F208" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G208" s="94"/>
-      <c r="H208" s="100"/>
-      <c r="I208" s="103"/>
+      <c r="H208" s="97"/>
+      <c r="I208" s="91"/>
       <c r="J208" s="45"/>
     </row>
     <row r="209" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B209" s="91"/>
+      <c r="B209" s="103"/>
       <c r="C209" s="94"/>
-      <c r="D209" s="97"/>
-      <c r="E209" s="45" t="s">
-        <v>668</v>
+      <c r="D209" s="100"/>
+      <c r="E209" s="33" t="s">
+        <v>669</v>
       </c>
       <c r="F209" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G209" s="94"/>
-      <c r="H209" s="100"/>
-      <c r="I209" s="103"/>
+      <c r="H209" s="97"/>
+      <c r="I209" s="91"/>
       <c r="J209" s="45"/>
     </row>
-    <row r="210" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B210" s="91"/>
+    <row r="210" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B210" s="103"/>
       <c r="C210" s="94"/>
-      <c r="D210" s="97"/>
-      <c r="E210" s="33" t="s">
-        <v>669</v>
+      <c r="D210" s="100"/>
+      <c r="E210" s="45" t="s">
+        <v>670</v>
       </c>
       <c r="F210" s="33" t="s">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="G210" s="94"/>
-      <c r="H210" s="100"/>
-      <c r="I210" s="103"/>
+      <c r="H210" s="97"/>
+      <c r="I210" s="92"/>
       <c r="J210" s="45"/>
     </row>
-    <row r="211" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B211" s="91"/>
-      <c r="C211" s="94"/>
-      <c r="D211" s="97"/>
-      <c r="E211" s="45" t="s">
-        <v>670</v>
-      </c>
-      <c r="F211" s="33" t="s">
-        <v>686</v>
-      </c>
-      <c r="G211" s="94"/>
-      <c r="H211" s="100"/>
-      <c r="I211" s="104"/>
-      <c r="J211" s="45"/>
-    </row>
-    <row r="212" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="48" t="s">
+    <row r="211" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="C212" s="60" t="s">
+      <c r="C211" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="D212" s="58"/>
-      <c r="E212" s="44"/>
-      <c r="F212" s="44"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="59"/>
-      <c r="I212" s="58"/>
-      <c r="J212" s="44"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="44"/>
+      <c r="F211" s="44"/>
+      <c r="G211" s="44"/>
+      <c r="H211" s="59"/>
+      <c r="I211" s="58"/>
+      <c r="J211" s="44"/>
+    </row>
+    <row r="212" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B212" s="102" t="s">
+        <v>685</v>
+      </c>
+      <c r="C212" s="93">
+        <v>193</v>
+      </c>
+      <c r="D212" s="99" t="s">
+        <v>683</v>
+      </c>
+      <c r="E212" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F212" s="45"/>
+      <c r="G212" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H212" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I212" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J212" s="45"/>
     </row>
     <row r="213" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B213" s="90" t="s">
-        <v>685</v>
-      </c>
-      <c r="C213" s="93">
-        <v>193</v>
-      </c>
-      <c r="D213" s="96" t="s">
-        <v>683</v>
-      </c>
-      <c r="E213" s="33" t="s">
-        <v>637</v>
+      <c r="B213" s="103"/>
+      <c r="C213" s="94"/>
+      <c r="D213" s="100"/>
+      <c r="E213" s="45" t="s">
+        <v>562</v>
       </c>
       <c r="F213" s="45"/>
-      <c r="G213" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H213" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I213" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G213" s="94"/>
+      <c r="H213" s="97"/>
+      <c r="I213" s="91"/>
       <c r="J213" s="45"/>
     </row>
     <row r="214" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B214" s="91"/>
+      <c r="B214" s="103"/>
       <c r="C214" s="94"/>
-      <c r="D214" s="97"/>
+      <c r="D214" s="100"/>
       <c r="E214" s="45" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F214" s="45"/>
       <c r="G214" s="94"/>
-      <c r="H214" s="100"/>
-      <c r="I214" s="103"/>
+      <c r="H214" s="97"/>
+      <c r="I214" s="91"/>
       <c r="J214" s="45"/>
     </row>
     <row r="215" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B215" s="91"/>
+      <c r="B215" s="103"/>
       <c r="C215" s="94"/>
-      <c r="D215" s="97"/>
+      <c r="D215" s="100"/>
       <c r="E215" s="45" t="s">
-        <v>563</v>
+        <v>678</v>
       </c>
       <c r="F215" s="45"/>
       <c r="G215" s="94"/>
-      <c r="H215" s="100"/>
-      <c r="I215" s="103"/>
+      <c r="H215" s="97"/>
+      <c r="I215" s="91"/>
       <c r="J215" s="45"/>
     </row>
     <row r="216" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B216" s="91"/>
+      <c r="B216" s="103"/>
       <c r="C216" s="94"/>
-      <c r="D216" s="97"/>
+      <c r="D216" s="100"/>
       <c r="E216" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="F216" s="45"/>
+        <v>679</v>
+      </c>
+      <c r="F216" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G216" s="94"/>
-      <c r="H216" s="100"/>
-      <c r="I216" s="103"/>
+      <c r="H216" s="97"/>
+      <c r="I216" s="91"/>
       <c r="J216" s="45"/>
     </row>
     <row r="217" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B217" s="91"/>
+      <c r="B217" s="103"/>
       <c r="C217" s="94"/>
-      <c r="D217" s="97"/>
-      <c r="E217" s="45" t="s">
-        <v>679</v>
+      <c r="D217" s="100"/>
+      <c r="E217" s="33" t="s">
+        <v>680</v>
       </c>
       <c r="F217" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G217" s="94"/>
-      <c r="H217" s="100"/>
-      <c r="I217" s="103"/>
+      <c r="H217" s="97"/>
+      <c r="I217" s="91"/>
       <c r="J217" s="45"/>
     </row>
-    <row r="218" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B218" s="91"/>
-      <c r="C218" s="94"/>
-      <c r="D218" s="97"/>
-      <c r="E218" s="33" t="s">
-        <v>680</v>
+    <row r="218" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B218" s="104"/>
+      <c r="C218" s="95"/>
+      <c r="D218" s="101"/>
+      <c r="E218" s="45" t="s">
+        <v>681</v>
       </c>
       <c r="F218" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G218" s="94"/>
-      <c r="H218" s="100"/>
-      <c r="I218" s="103"/>
+        <v>682</v>
+      </c>
+      <c r="G218" s="95"/>
+      <c r="H218" s="98"/>
+      <c r="I218" s="92"/>
       <c r="J218" s="45"/>
     </row>
-    <row r="219" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B219" s="92"/>
-      <c r="C219" s="95"/>
-      <c r="D219" s="98"/>
-      <c r="E219" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="F219" s="33" t="s">
-        <v>682</v>
-      </c>
-      <c r="G219" s="95"/>
-      <c r="H219" s="101"/>
-      <c r="I219" s="104"/>
-      <c r="J219" s="45"/>
-    </row>
-    <row r="220" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="48" t="s">
+    <row r="219" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="C220" s="60" t="s">
+      <c r="C219" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="D220" s="58"/>
-      <c r="E220" s="44"/>
-      <c r="F220" s="44"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="59"/>
-      <c r="I220" s="58"/>
-      <c r="J220" s="44"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="44"/>
+      <c r="F219" s="44"/>
+      <c r="G219" s="44"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="44"/>
+    </row>
+    <row r="220" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B220" s="102" t="s">
+        <v>690</v>
+      </c>
+      <c r="C220" s="93">
+        <v>194</v>
+      </c>
+      <c r="D220" s="99" t="s">
+        <v>688</v>
+      </c>
+      <c r="E220" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F220" s="45"/>
+      <c r="G220" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H220" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I220" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J220" s="45"/>
     </row>
     <row r="221" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B221" s="90" t="s">
-        <v>690</v>
-      </c>
-      <c r="C221" s="93">
-        <v>194</v>
-      </c>
-      <c r="D221" s="96" t="s">
-        <v>688</v>
-      </c>
-      <c r="E221" s="33" t="s">
-        <v>637</v>
+      <c r="B221" s="103"/>
+      <c r="C221" s="94"/>
+      <c r="D221" s="100"/>
+      <c r="E221" s="45" t="s">
+        <v>562</v>
       </c>
       <c r="F221" s="45"/>
-      <c r="G221" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H221" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I221" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G221" s="94"/>
+      <c r="H221" s="97"/>
+      <c r="I221" s="91"/>
       <c r="J221" s="45"/>
     </row>
     <row r="222" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B222" s="91"/>
+      <c r="B222" s="103"/>
       <c r="C222" s="94"/>
-      <c r="D222" s="97"/>
+      <c r="D222" s="100"/>
       <c r="E222" s="45" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="F222" s="45"/>
       <c r="G222" s="94"/>
-      <c r="H222" s="100"/>
-      <c r="I222" s="103"/>
+      <c r="H222" s="97"/>
+      <c r="I222" s="91"/>
       <c r="J222" s="45"/>
     </row>
     <row r="223" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B223" s="91"/>
+      <c r="B223" s="103"/>
       <c r="C223" s="94"/>
-      <c r="D223" s="97"/>
+      <c r="D223" s="100"/>
       <c r="E223" s="45" t="s">
-        <v>580</v>
+        <v>678</v>
       </c>
       <c r="F223" s="45"/>
       <c r="G223" s="94"/>
-      <c r="H223" s="100"/>
-      <c r="I223" s="103"/>
+      <c r="H223" s="97"/>
+      <c r="I223" s="91"/>
       <c r="J223" s="45"/>
     </row>
     <row r="224" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B224" s="91"/>
+      <c r="B224" s="103"/>
       <c r="C224" s="94"/>
-      <c r="D224" s="97"/>
+      <c r="D224" s="100"/>
       <c r="E224" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="F224" s="45"/>
+        <v>679</v>
+      </c>
+      <c r="F224" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G224" s="94"/>
-      <c r="H224" s="100"/>
-      <c r="I224" s="103"/>
+      <c r="H224" s="97"/>
+      <c r="I224" s="91"/>
       <c r="J224" s="45"/>
     </row>
     <row r="225" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B225" s="91"/>
+      <c r="B225" s="103"/>
       <c r="C225" s="94"/>
-      <c r="D225" s="97"/>
-      <c r="E225" s="45" t="s">
-        <v>679</v>
+      <c r="D225" s="100"/>
+      <c r="E225" s="33" t="s">
+        <v>680</v>
       </c>
       <c r="F225" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G225" s="94"/>
-      <c r="H225" s="100"/>
-      <c r="I225" s="103"/>
+      <c r="H225" s="97"/>
+      <c r="I225" s="91"/>
       <c r="J225" s="45"/>
     </row>
-    <row r="226" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B226" s="91"/>
-      <c r="C226" s="94"/>
-      <c r="D226" s="97"/>
-      <c r="E226" s="33" t="s">
-        <v>680</v>
+    <row r="226" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B226" s="104"/>
+      <c r="C226" s="95"/>
+      <c r="D226" s="101"/>
+      <c r="E226" s="45" t="s">
+        <v>681</v>
       </c>
       <c r="F226" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G226" s="94"/>
-      <c r="H226" s="100"/>
-      <c r="I226" s="103"/>
+        <v>689</v>
+      </c>
+      <c r="G226" s="95"/>
+      <c r="H226" s="98"/>
+      <c r="I226" s="92"/>
       <c r="J226" s="45"/>
     </row>
-    <row r="227" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B227" s="92"/>
-      <c r="C227" s="95"/>
-      <c r="D227" s="98"/>
-      <c r="E227" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="F227" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="G227" s="95"/>
-      <c r="H227" s="101"/>
-      <c r="I227" s="104"/>
-      <c r="J227" s="45"/>
-    </row>
-    <row r="228" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="48" t="s">
+    <row r="227" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="C228" s="60" t="s">
+      <c r="C227" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="D228" s="58"/>
-      <c r="E228" s="44"/>
-      <c r="F228" s="44"/>
-      <c r="G228" s="44"/>
-      <c r="H228" s="59"/>
-      <c r="I228" s="58"/>
-      <c r="J228" s="44"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="44"/>
+      <c r="F227" s="44"/>
+      <c r="G227" s="44"/>
+      <c r="H227" s="59"/>
+      <c r="I227" s="58"/>
+      <c r="J227" s="44"/>
+    </row>
+    <row r="228" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B228" s="102" t="s">
+        <v>693</v>
+      </c>
+      <c r="C228" s="93">
+        <v>195</v>
+      </c>
+      <c r="D228" s="99" t="s">
+        <v>691</v>
+      </c>
+      <c r="E228" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F228" s="45"/>
+      <c r="G228" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H228" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I228" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J228" s="45"/>
     </row>
     <row r="229" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B229" s="90" t="s">
-        <v>693</v>
-      </c>
-      <c r="C229" s="93">
-        <v>195</v>
-      </c>
-      <c r="D229" s="96" t="s">
-        <v>691</v>
-      </c>
-      <c r="E229" s="33" t="s">
-        <v>637</v>
+      <c r="B229" s="103"/>
+      <c r="C229" s="94"/>
+      <c r="D229" s="100"/>
+      <c r="E229" s="45" t="s">
+        <v>562</v>
       </c>
       <c r="F229" s="45"/>
-      <c r="G229" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H229" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I229" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G229" s="94"/>
+      <c r="H229" s="97"/>
+      <c r="I229" s="91"/>
       <c r="J229" s="45"/>
     </row>
     <row r="230" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B230" s="91"/>
+      <c r="B230" s="103"/>
       <c r="C230" s="94"/>
-      <c r="D230" s="97"/>
+      <c r="D230" s="100"/>
       <c r="E230" s="45" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="F230" s="45"/>
       <c r="G230" s="94"/>
-      <c r="H230" s="100"/>
-      <c r="I230" s="103"/>
+      <c r="H230" s="97"/>
+      <c r="I230" s="91"/>
       <c r="J230" s="45"/>
     </row>
     <row r="231" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B231" s="91"/>
+      <c r="B231" s="103"/>
       <c r="C231" s="94"/>
-      <c r="D231" s="97"/>
+      <c r="D231" s="100"/>
       <c r="E231" s="45" t="s">
-        <v>583</v>
+        <v>678</v>
       </c>
       <c r="F231" s="45"/>
       <c r="G231" s="94"/>
-      <c r="H231" s="100"/>
-      <c r="I231" s="103"/>
+      <c r="H231" s="97"/>
+      <c r="I231" s="91"/>
       <c r="J231" s="45"/>
     </row>
     <row r="232" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B232" s="91"/>
+      <c r="B232" s="103"/>
       <c r="C232" s="94"/>
-      <c r="D232" s="97"/>
+      <c r="D232" s="100"/>
       <c r="E232" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="F232" s="45"/>
+        <v>679</v>
+      </c>
+      <c r="F232" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G232" s="94"/>
-      <c r="H232" s="100"/>
-      <c r="I232" s="103"/>
+      <c r="H232" s="97"/>
+      <c r="I232" s="91"/>
       <c r="J232" s="45"/>
     </row>
     <row r="233" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B233" s="91"/>
+      <c r="B233" s="103"/>
       <c r="C233" s="94"/>
-      <c r="D233" s="97"/>
-      <c r="E233" s="45" t="s">
-        <v>679</v>
+      <c r="D233" s="100"/>
+      <c r="E233" s="33" t="s">
+        <v>680</v>
       </c>
       <c r="F233" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G233" s="94"/>
-      <c r="H233" s="100"/>
-      <c r="I233" s="103"/>
+      <c r="H233" s="97"/>
+      <c r="I233" s="91"/>
       <c r="J233" s="45"/>
     </row>
-    <row r="234" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B234" s="91"/>
-      <c r="C234" s="94"/>
-      <c r="D234" s="97"/>
-      <c r="E234" s="33" t="s">
-        <v>680</v>
+    <row r="234" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B234" s="104"/>
+      <c r="C234" s="95"/>
+      <c r="D234" s="101"/>
+      <c r="E234" s="45" t="s">
+        <v>681</v>
       </c>
       <c r="F234" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G234" s="94"/>
-      <c r="H234" s="100"/>
-      <c r="I234" s="103"/>
+        <v>692</v>
+      </c>
+      <c r="G234" s="95"/>
+      <c r="H234" s="98"/>
+      <c r="I234" s="92"/>
       <c r="J234" s="45"/>
     </row>
-    <row r="235" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B235" s="92"/>
-      <c r="C235" s="95"/>
-      <c r="D235" s="98"/>
-      <c r="E235" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="F235" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="G235" s="95"/>
-      <c r="H235" s="101"/>
-      <c r="I235" s="104"/>
-      <c r="J235" s="45"/>
-    </row>
-    <row r="236" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="48" t="s">
+    <row r="235" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="48" t="s">
         <v>625</v>
       </c>
-      <c r="C236" s="60" t="s">
+      <c r="C235" s="60" t="s">
         <v>532</v>
       </c>
-      <c r="D236" s="58"/>
-      <c r="E236" s="44"/>
-      <c r="F236" s="44"/>
-      <c r="G236" s="44"/>
-      <c r="H236" s="59"/>
-      <c r="I236" s="58"/>
-      <c r="J236" s="44"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="44"/>
+      <c r="F235" s="44"/>
+      <c r="G235" s="44"/>
+      <c r="H235" s="59"/>
+      <c r="I235" s="58"/>
+      <c r="J235" s="44"/>
+    </row>
+    <row r="236" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B236" s="102" t="s">
+        <v>717</v>
+      </c>
+      <c r="C236" s="93">
+        <v>196</v>
+      </c>
+      <c r="D236" s="99" t="s">
+        <v>694</v>
+      </c>
+      <c r="E236" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="F236" s="45"/>
+      <c r="G236" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H236" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I236" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J236" s="45"/>
     </row>
     <row r="237" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B237" s="90" t="s">
-        <v>717</v>
-      </c>
-      <c r="C237" s="93">
-        <v>196</v>
-      </c>
-      <c r="D237" s="96" t="s">
-        <v>694</v>
-      </c>
-      <c r="E237" s="33" t="s">
-        <v>637</v>
+      <c r="B237" s="103"/>
+      <c r="C237" s="94"/>
+      <c r="D237" s="100"/>
+      <c r="E237" s="45" t="s">
+        <v>562</v>
       </c>
       <c r="F237" s="45"/>
-      <c r="G237" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H237" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I237" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G237" s="94"/>
+      <c r="H237" s="97"/>
+      <c r="I237" s="91"/>
       <c r="J237" s="45"/>
     </row>
     <row r="238" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B238" s="91"/>
+      <c r="B238" s="103"/>
       <c r="C238" s="94"/>
-      <c r="D238" s="97"/>
+      <c r="D238" s="100"/>
       <c r="E238" s="45" t="s">
-        <v>562</v>
+        <v>695</v>
       </c>
       <c r="F238" s="45"/>
       <c r="G238" s="94"/>
-      <c r="H238" s="100"/>
-      <c r="I238" s="103"/>
+      <c r="H238" s="97"/>
+      <c r="I238" s="91"/>
       <c r="J238" s="45"/>
     </row>
     <row r="239" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B239" s="91"/>
+      <c r="B239" s="103"/>
       <c r="C239" s="94"/>
-      <c r="D239" s="97"/>
+      <c r="D239" s="100"/>
       <c r="E239" s="45" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F239" s="45"/>
       <c r="G239" s="94"/>
-      <c r="H239" s="100"/>
-      <c r="I239" s="103"/>
+      <c r="H239" s="97"/>
+      <c r="I239" s="91"/>
       <c r="J239" s="45"/>
     </row>
     <row r="240" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B240" s="91"/>
+      <c r="B240" s="103"/>
       <c r="C240" s="94"/>
-      <c r="D240" s="97"/>
+      <c r="D240" s="100"/>
       <c r="E240" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="F240" s="45"/>
+        <v>679</v>
+      </c>
+      <c r="F240" s="33" t="s">
+        <v>737</v>
+      </c>
       <c r="G240" s="94"/>
-      <c r="H240" s="100"/>
-      <c r="I240" s="103"/>
+      <c r="H240" s="97"/>
+      <c r="I240" s="91"/>
       <c r="J240" s="45"/>
     </row>
     <row r="241" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B241" s="91"/>
+      <c r="B241" s="103"/>
       <c r="C241" s="94"/>
-      <c r="D241" s="97"/>
-      <c r="E241" s="45" t="s">
-        <v>679</v>
+      <c r="D241" s="100"/>
+      <c r="E241" s="33" t="s">
+        <v>680</v>
       </c>
       <c r="F241" s="33" t="s">
         <v>737</v>
       </c>
       <c r="G241" s="94"/>
-      <c r="H241" s="100"/>
-      <c r="I241" s="103"/>
+      <c r="H241" s="97"/>
+      <c r="I241" s="91"/>
       <c r="J241" s="45"/>
     </row>
-    <row r="242" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B242" s="91"/>
-      <c r="C242" s="94"/>
-      <c r="D242" s="97"/>
-      <c r="E242" s="33" t="s">
-        <v>680</v>
+    <row r="242" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B242" s="104"/>
+      <c r="C242" s="95"/>
+      <c r="D242" s="101"/>
+      <c r="E242" s="45" t="s">
+        <v>681</v>
       </c>
       <c r="F242" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="G242" s="94"/>
-      <c r="H242" s="100"/>
-      <c r="I242" s="103"/>
+        <v>696</v>
+      </c>
+      <c r="G242" s="95"/>
+      <c r="H242" s="98"/>
+      <c r="I242" s="92"/>
       <c r="J242" s="45"/>
     </row>
-    <row r="243" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B243" s="92"/>
-      <c r="C243" s="95"/>
-      <c r="D243" s="98"/>
-      <c r="E243" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="F243" s="33" t="s">
-        <v>696</v>
-      </c>
-      <c r="G243" s="95"/>
-      <c r="H243" s="101"/>
-      <c r="I243" s="104"/>
-      <c r="J243" s="45"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B244" s="61" t="s">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="61" t="s">
         <v>509</v>
       </c>
-      <c r="C244" s="61"/>
-      <c r="D244" s="61"/>
-      <c r="E244" s="61"/>
-      <c r="F244" s="61"/>
-      <c r="G244" s="61"/>
-      <c r="H244" s="61"/>
-      <c r="I244" s="61"/>
-      <c r="J244" s="61"/>
-    </row>
-    <row r="245" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="48" t="s">
+      <c r="C243" s="61"/>
+      <c r="D243" s="61"/>
+      <c r="E243" s="61"/>
+      <c r="F243" s="61"/>
+      <c r="G243" s="61"/>
+      <c r="H243" s="61"/>
+      <c r="I243" s="61"/>
+      <c r="J243" s="61"/>
+    </row>
+    <row r="244" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="C245" s="60" t="s">
+      <c r="C244" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="D245" s="58"/>
-      <c r="E245" s="44"/>
-      <c r="F245" s="44"/>
-      <c r="G245" s="44"/>
-      <c r="H245" s="59"/>
-      <c r="I245" s="58"/>
-      <c r="J245" s="44"/>
-    </row>
-    <row r="246" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B246" s="90" t="s">
+      <c r="D244" s="58"/>
+      <c r="E244" s="44"/>
+      <c r="F244" s="44"/>
+      <c r="G244" s="44"/>
+      <c r="H244" s="59"/>
+      <c r="I244" s="58"/>
+      <c r="J244" s="44"/>
+    </row>
+    <row r="245" spans="2:10" ht="45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B245" s="102" t="s">
         <v>738</v>
       </c>
-      <c r="C246" s="93"/>
-      <c r="D246" s="96" t="s">
+      <c r="C245" s="93"/>
+      <c r="D245" s="99" t="s">
         <v>739</v>
       </c>
+      <c r="E245" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="F245" s="45"/>
+      <c r="G245" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H245" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I245" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J245" s="45"/>
+    </row>
+    <row r="246" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B246" s="103"/>
+      <c r="C246" s="94"/>
+      <c r="D246" s="100"/>
       <c r="E246" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F246" s="45"/>
-      <c r="G246" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H246" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I246" s="102" t="s">
-        <v>204</v>
-      </c>
+      <c r="G246" s="94"/>
+      <c r="H246" s="97"/>
+      <c r="I246" s="91"/>
       <c r="J246" s="45"/>
     </row>
     <row r="247" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B247" s="91"/>
+      <c r="B247" s="103"/>
       <c r="C247" s="94"/>
-      <c r="D247" s="97"/>
+      <c r="D247" s="100"/>
       <c r="E247" s="33" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F247" s="45"/>
       <c r="G247" s="94"/>
-      <c r="H247" s="100"/>
-      <c r="I247" s="103"/>
+      <c r="H247" s="97"/>
+      <c r="I247" s="91"/>
       <c r="J247" s="45"/>
     </row>
     <row r="248" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B248" s="91"/>
+      <c r="B248" s="103"/>
       <c r="C248" s="94"/>
-      <c r="D248" s="97"/>
+      <c r="D248" s="100"/>
       <c r="E248" s="33" t="s">
-        <v>742</v>
-      </c>
-      <c r="F248" s="45"/>
+        <v>743</v>
+      </c>
+      <c r="F248" s="84" t="s">
+        <v>748</v>
+      </c>
       <c r="G248" s="94"/>
-      <c r="H248" s="100"/>
-      <c r="I248" s="103"/>
+      <c r="H248" s="97"/>
+      <c r="I248" s="91"/>
       <c r="J248" s="45"/>
     </row>
     <row r="249" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B249" s="91"/>
+      <c r="B249" s="103"/>
       <c r="C249" s="94"/>
-      <c r="D249" s="97"/>
+      <c r="D249" s="100"/>
       <c r="E249" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="F249" s="84" t="s">
-        <v>748</v>
+        <v>744</v>
+      </c>
+      <c r="F249" s="45" t="s">
+        <v>749</v>
       </c>
       <c r="G249" s="94"/>
-      <c r="H249" s="100"/>
-      <c r="I249" s="103"/>
+      <c r="H249" s="97"/>
+      <c r="I249" s="91"/>
       <c r="J249" s="45"/>
     </row>
     <row r="250" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B250" s="91"/>
+      <c r="B250" s="103"/>
       <c r="C250" s="94"/>
-      <c r="D250" s="97"/>
-      <c r="E250" s="33" t="s">
-        <v>744</v>
+      <c r="D250" s="100"/>
+      <c r="E250" s="45" t="s">
+        <v>745</v>
       </c>
       <c r="F250" s="45" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G250" s="94"/>
-      <c r="H250" s="100"/>
-      <c r="I250" s="103"/>
+      <c r="H250" s="97"/>
+      <c r="I250" s="91"/>
       <c r="J250" s="45"/>
     </row>
     <row r="251" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B251" s="91"/>
+      <c r="B251" s="103"/>
       <c r="C251" s="94"/>
-      <c r="D251" s="97"/>
+      <c r="D251" s="100"/>
       <c r="E251" s="45" t="s">
-        <v>745</v>
-      </c>
-      <c r="F251" s="45" t="s">
-        <v>750</v>
+        <v>746</v>
+      </c>
+      <c r="F251" s="54">
+        <v>25</v>
       </c>
       <c r="G251" s="94"/>
-      <c r="H251" s="100"/>
-      <c r="I251" s="103"/>
+      <c r="H251" s="97"/>
+      <c r="I251" s="91"/>
       <c r="J251" s="45"/>
     </row>
     <row r="252" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B252" s="91"/>
-      <c r="C252" s="94"/>
-      <c r="D252" s="97"/>
+      <c r="B252" s="104"/>
+      <c r="C252" s="95"/>
+      <c r="D252" s="101"/>
       <c r="E252" s="45" t="s">
-        <v>746</v>
-      </c>
-      <c r="F252" s="54">
-        <v>25</v>
-      </c>
-      <c r="G252" s="94"/>
-      <c r="H252" s="100"/>
-      <c r="I252" s="103"/>
+        <v>747</v>
+      </c>
+      <c r="F252" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="G252" s="95"/>
+      <c r="H252" s="98"/>
+      <c r="I252" s="92"/>
       <c r="J252" s="45"/>
     </row>
-    <row r="253" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B253" s="92"/>
-      <c r="C253" s="95"/>
-      <c r="D253" s="98"/>
-      <c r="E253" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="F253" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="G253" s="95"/>
-      <c r="H253" s="101"/>
-      <c r="I253" s="104"/>
-      <c r="J253" s="45"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B254" s="61" t="s">
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="C254" s="61"/>
-      <c r="D254" s="61"/>
-      <c r="E254" s="61"/>
-      <c r="F254" s="61"/>
-      <c r="G254" s="61"/>
-      <c r="H254" s="61"/>
-      <c r="I254" s="61"/>
-      <c r="J254" s="61"/>
-    </row>
-    <row r="255" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="48" t="s">
+      <c r="C253" s="61"/>
+      <c r="D253" s="61"/>
+      <c r="E253" s="61"/>
+      <c r="F253" s="61"/>
+      <c r="G253" s="61"/>
+      <c r="H253" s="61"/>
+      <c r="I253" s="61"/>
+      <c r="J253" s="61"/>
+    </row>
+    <row r="254" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="48" t="s">
         <v>728</v>
       </c>
-      <c r="C255" s="60" t="s">
+      <c r="C254" s="60" t="s">
         <v>729</v>
       </c>
-      <c r="D255" s="58"/>
-      <c r="E255" s="44"/>
-      <c r="F255" s="44"/>
-      <c r="G255" s="44"/>
-      <c r="H255" s="59"/>
-      <c r="I255" s="58"/>
-      <c r="J255" s="44"/>
-    </row>
-    <row r="256" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B256" s="90" t="s">
+      <c r="D254" s="58"/>
+      <c r="E254" s="44"/>
+      <c r="F254" s="44"/>
+      <c r="G254" s="44"/>
+      <c r="H254" s="59"/>
+      <c r="I254" s="58"/>
+      <c r="J254" s="44"/>
+    </row>
+    <row r="255" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B255" s="102" t="s">
         <v>761</v>
       </c>
-      <c r="C256" s="93"/>
-      <c r="D256" s="96" t="s">
+      <c r="C255" s="93"/>
+      <c r="D255" s="99" t="s">
         <v>762</v>
       </c>
+      <c r="E255" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="F255" s="45"/>
+      <c r="G255" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H255" s="96" t="s">
+        <v>466</v>
+      </c>
+      <c r="I255" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J255" s="45"/>
+    </row>
+    <row r="256" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B256" s="103"/>
+      <c r="C256" s="94"/>
+      <c r="D256" s="100"/>
       <c r="E256" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F256" s="45"/>
-      <c r="G256" s="93" t="s">
+      <c r="G256" s="94"/>
+      <c r="H256" s="97"/>
+      <c r="I256" s="91"/>
+      <c r="J256" s="45"/>
+    </row>
+    <row r="257" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B257" s="104"/>
+      <c r="C257" s="95"/>
+      <c r="D257" s="101"/>
+      <c r="E257" s="33" t="s">
+        <v>763</v>
+      </c>
+      <c r="F257" s="33" t="s">
+        <v>764</v>
+      </c>
+      <c r="G257" s="95"/>
+      <c r="H257" s="98"/>
+      <c r="I257" s="92"/>
+      <c r="J257" s="45"/>
+    </row>
+    <row r="258" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C258" s="60" t="s">
+        <v>732</v>
+      </c>
+      <c r="D258" s="58"/>
+      <c r="E258" s="44"/>
+      <c r="F258" s="44"/>
+      <c r="G258" s="44"/>
+      <c r="H258" s="59"/>
+      <c r="I258" s="58"/>
+      <c r="J258" s="44"/>
+    </row>
+    <row r="259" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B259" s="102" t="s">
+        <v>765</v>
+      </c>
+      <c r="C259" s="93"/>
+      <c r="D259" s="102" t="s">
+        <v>766</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="F259" s="45"/>
+      <c r="G259" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H256" s="99" t="s">
+      <c r="H259" s="96" t="s">
         <v>466</v>
       </c>
-      <c r="I256" s="102" t="s">
+      <c r="I259" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="J256" s="45"/>
-    </row>
-    <row r="257" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B257" s="91"/>
-      <c r="C257" s="94"/>
-      <c r="D257" s="97"/>
-      <c r="E257" s="33" t="s">
-        <v>741</v>
-      </c>
-      <c r="F257" s="45"/>
-      <c r="G257" s="94"/>
-      <c r="H257" s="100"/>
-      <c r="I257" s="103"/>
-      <c r="J257" s="45"/>
-    </row>
-    <row r="258" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B258" s="92"/>
-      <c r="C258" s="95"/>
-      <c r="D258" s="98"/>
-      <c r="E258" s="33" t="s">
-        <v>763</v>
-      </c>
-      <c r="F258" s="33" t="s">
-        <v>764</v>
-      </c>
-      <c r="G258" s="95"/>
-      <c r="H258" s="101"/>
-      <c r="I258" s="104"/>
-      <c r="J258" s="45"/>
-    </row>
-    <row r="259" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C259" s="60" t="s">
-        <v>732</v>
-      </c>
-      <c r="D259" s="58"/>
-      <c r="E259" s="44"/>
-      <c r="F259" s="44"/>
-      <c r="G259" s="44"/>
-      <c r="H259" s="59"/>
-      <c r="I259" s="58"/>
-      <c r="J259" s="44"/>
+      <c r="J259" s="45"/>
     </row>
     <row r="260" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B260" s="90" t="s">
-        <v>765</v>
-      </c>
-      <c r="C260" s="93"/>
-      <c r="D260" s="90" t="s">
-        <v>766</v>
-      </c>
+      <c r="B260" s="103"/>
+      <c r="C260" s="94"/>
+      <c r="D260" s="103"/>
       <c r="E260" s="33" t="s">
-        <v>771</v>
-      </c>
-      <c r="F260" s="45"/>
-      <c r="G260" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H260" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="I260" s="102" t="s">
-        <v>204</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="F260" s="45" t="s">
+        <v>775</v>
+      </c>
+      <c r="G260" s="94"/>
+      <c r="H260" s="97"/>
+      <c r="I260" s="91"/>
       <c r="J260" s="45"/>
     </row>
     <row r="261" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B261" s="91"/>
+      <c r="B261" s="103"/>
       <c r="C261" s="94"/>
-      <c r="D261" s="91"/>
+      <c r="D261" s="103"/>
       <c r="E261" s="33" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F261" s="45" t="s">
         <v>775</v>
       </c>
       <c r="G261" s="94"/>
-      <c r="H261" s="100"/>
-      <c r="I261" s="103"/>
+      <c r="H261" s="97"/>
+      <c r="I261" s="91"/>
       <c r="J261" s="45"/>
     </row>
-    <row r="262" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B262" s="91"/>
-      <c r="C262" s="94"/>
-      <c r="D262" s="91"/>
-      <c r="E262" s="33" t="s">
+    <row r="262" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B262" s="104"/>
+      <c r="C262" s="95"/>
+      <c r="D262" s="104"/>
+      <c r="E262" s="45" t="s">
+        <v>774</v>
+      </c>
+      <c r="F262" s="45" t="s">
+        <v>767</v>
+      </c>
+      <c r="G262" s="95"/>
+      <c r="H262" s="98"/>
+      <c r="I262" s="92"/>
+      <c r="J262" s="45"/>
+    </row>
+    <row r="263" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B263" s="102" t="s">
+        <v>768</v>
+      </c>
+      <c r="C263" s="93"/>
+      <c r="D263" s="102" t="s">
+        <v>769</v>
+      </c>
+      <c r="E263" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="F263" s="45"/>
+      <c r="G263" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H263" s="96" t="s">
+        <v>466</v>
+      </c>
+      <c r="I263" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="J263" s="45"/>
+    </row>
+    <row r="264" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B264" s="103"/>
+      <c r="C264" s="94"/>
+      <c r="D264" s="103"/>
+      <c r="E264" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="F264" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="G264" s="94"/>
+      <c r="H264" s="97"/>
+      <c r="I264" s="91"/>
+      <c r="J264" s="45"/>
+    </row>
+    <row r="265" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B265" s="103"/>
+      <c r="C265" s="94"/>
+      <c r="D265" s="103"/>
+      <c r="E265" s="33" t="s">
         <v>773</v>
       </c>
-      <c r="F262" s="45" t="s">
-        <v>775</v>
-      </c>
-      <c r="G262" s="94"/>
-      <c r="H262" s="100"/>
-      <c r="I262" s="103"/>
-      <c r="J262" s="45"/>
-    </row>
-    <row r="263" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B263" s="92"/>
-      <c r="C263" s="95"/>
-      <c r="D263" s="92"/>
-      <c r="E263" s="45" t="s">
+      <c r="F265" s="54">
+        <v>123456</v>
+      </c>
+      <c r="G265" s="94"/>
+      <c r="H265" s="97"/>
+      <c r="I265" s="91"/>
+      <c r="J265" s="45"/>
+    </row>
+    <row r="266" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B266" s="104"/>
+      <c r="C266" s="95"/>
+      <c r="D266" s="104"/>
+      <c r="E266" s="45" t="s">
         <v>774</v>
       </c>
-      <c r="F263" s="45" t="s">
-        <v>767</v>
-      </c>
-      <c r="G263" s="95"/>
-      <c r="H263" s="101"/>
-      <c r="I263" s="104"/>
-      <c r="J263" s="45"/>
-    </row>
-    <row r="264" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B264" s="90" t="s">
-        <v>768</v>
-      </c>
-      <c r="C264" s="93"/>
-      <c r="D264" s="90" t="s">
-        <v>769</v>
-      </c>
-      <c r="E264" s="33" t="s">
-        <v>771</v>
-      </c>
-      <c r="F264" s="45"/>
-      <c r="G264" s="93" t="s">
+      <c r="F266" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="G266" s="95"/>
+      <c r="H266" s="98"/>
+      <c r="I266" s="92"/>
+      <c r="J266" s="45"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B267" s="61" t="s">
+        <v>725</v>
+      </c>
+      <c r="C267" s="61"/>
+      <c r="D267" s="61"/>
+      <c r="E267" s="61"/>
+      <c r="F267" s="61"/>
+      <c r="G267" s="61"/>
+      <c r="H267" s="61"/>
+      <c r="I267" s="61"/>
+      <c r="J267" s="61"/>
+    </row>
+    <row r="268" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="48" t="s">
+        <v>734</v>
+      </c>
+      <c r="C268" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="D268" s="58"/>
+      <c r="E268" s="44"/>
+      <c r="F268" s="44"/>
+      <c r="G268" s="44"/>
+      <c r="H268" s="59"/>
+      <c r="I268" s="58"/>
+      <c r="J268" s="44"/>
+    </row>
+    <row r="269" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B269" s="102" t="s">
+        <v>752</v>
+      </c>
+      <c r="C269" s="93"/>
+      <c r="D269" s="99" t="s">
+        <v>735</v>
+      </c>
+      <c r="E269" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="F269" s="45"/>
+      <c r="G269" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="H264" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="I264" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="J264" s="45"/>
-    </row>
-    <row r="265" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B265" s="91"/>
-      <c r="C265" s="94"/>
-      <c r="D265" s="91"/>
-      <c r="E265" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="F265" s="33" t="s">
-        <v>776</v>
-      </c>
-      <c r="G265" s="94"/>
-      <c r="H265" s="100"/>
-      <c r="I265" s="103"/>
-      <c r="J265" s="45"/>
-    </row>
-    <row r="266" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B266" s="91"/>
-      <c r="C266" s="94"/>
-      <c r="D266" s="91"/>
-      <c r="E266" s="33" t="s">
-        <v>773</v>
-      </c>
-      <c r="F266" s="54">
-        <v>123456</v>
-      </c>
-      <c r="G266" s="94"/>
-      <c r="H266" s="100"/>
-      <c r="I266" s="103"/>
-      <c r="J266" s="45"/>
-    </row>
-    <row r="267" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B267" s="92"/>
-      <c r="C267" s="95"/>
-      <c r="D267" s="92"/>
-      <c r="E267" s="45" t="s">
-        <v>774</v>
-      </c>
-      <c r="F267" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="G267" s="95"/>
-      <c r="H267" s="101"/>
-      <c r="I267" s="104"/>
-      <c r="J267" s="45"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B268" s="61" t="s">
-        <v>725</v>
-      </c>
-      <c r="C268" s="61"/>
-      <c r="D268" s="61"/>
-      <c r="E268" s="61"/>
-      <c r="F268" s="61"/>
-      <c r="G268" s="61"/>
-      <c r="H268" s="61"/>
-      <c r="I268" s="61"/>
-      <c r="J268" s="61"/>
-    </row>
-    <row r="269" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="C269" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="D269" s="58"/>
-      <c r="E269" s="44"/>
-      <c r="F269" s="44"/>
-      <c r="G269" s="44"/>
-      <c r="H269" s="59"/>
-      <c r="I269" s="58"/>
-      <c r="J269" s="44"/>
-    </row>
-    <row r="270" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B270" s="90" t="s">
-        <v>752</v>
-      </c>
-      <c r="C270" s="93"/>
-      <c r="D270" s="96" t="s">
-        <v>735</v>
-      </c>
+      <c r="H269" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="I269" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="J269" s="45"/>
+    </row>
+    <row r="270" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B270" s="103"/>
+      <c r="C270" s="94"/>
+      <c r="D270" s="100"/>
       <c r="E270" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F270" s="45"/>
-      <c r="G270" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="H270" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I270" s="102" t="s">
-        <v>119</v>
-      </c>
+      <c r="G270" s="94"/>
+      <c r="H270" s="97"/>
+      <c r="I270" s="91"/>
       <c r="J270" s="45"/>
     </row>
     <row r="271" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B271" s="91"/>
+      <c r="B271" s="103"/>
       <c r="C271" s="94"/>
-      <c r="D271" s="97"/>
-      <c r="E271" s="33" t="s">
-        <v>741</v>
+      <c r="D271" s="100"/>
+      <c r="E271" s="45" t="s">
+        <v>753</v>
       </c>
       <c r="F271" s="45"/>
       <c r="G271" s="94"/>
-      <c r="H271" s="100"/>
-      <c r="I271" s="103"/>
+      <c r="H271" s="97"/>
+      <c r="I271" s="91"/>
       <c r="J271" s="45"/>
     </row>
     <row r="272" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B272" s="91"/>
+      <c r="B272" s="103"/>
       <c r="C272" s="94"/>
-      <c r="D272" s="97"/>
+      <c r="D272" s="100"/>
       <c r="E272" s="45" t="s">
-        <v>753</v>
-      </c>
-      <c r="F272" s="45"/>
+        <v>754</v>
+      </c>
+      <c r="F272" s="45" t="s">
+        <v>758</v>
+      </c>
       <c r="G272" s="94"/>
-      <c r="H272" s="100"/>
-      <c r="I272" s="103"/>
+      <c r="H272" s="97"/>
+      <c r="I272" s="91"/>
       <c r="J272" s="45"/>
     </row>
     <row r="273" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B273" s="91"/>
+      <c r="B273" s="103"/>
       <c r="C273" s="94"/>
-      <c r="D273" s="97"/>
+      <c r="D273" s="100"/>
       <c r="E273" s="45" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F273" s="45" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G273" s="94"/>
-      <c r="H273" s="100"/>
-      <c r="I273" s="103"/>
+      <c r="H273" s="97"/>
+      <c r="I273" s="91"/>
       <c r="J273" s="45"/>
     </row>
     <row r="274" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B274" s="91"/>
+      <c r="B274" s="103"/>
       <c r="C274" s="94"/>
-      <c r="D274" s="97"/>
+      <c r="D274" s="100"/>
       <c r="E274" s="45" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F274" s="45" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G274" s="94"/>
-      <c r="H274" s="100"/>
-      <c r="I274" s="103"/>
+      <c r="H274" s="97"/>
+      <c r="I274" s="91"/>
       <c r="J274" s="45"/>
     </row>
     <row r="275" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B275" s="91"/>
+      <c r="B275" s="103"/>
       <c r="C275" s="94"/>
-      <c r="D275" s="97"/>
+      <c r="D275" s="100"/>
       <c r="E275" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="F275" s="45" t="s">
-        <v>760</v>
+        <v>757</v>
+      </c>
+      <c r="F275" s="54">
+        <v>123456.789</v>
       </c>
       <c r="G275" s="94"/>
-      <c r="H275" s="100"/>
-      <c r="I275" s="103"/>
+      <c r="H275" s="97"/>
+      <c r="I275" s="91"/>
       <c r="J275" s="45"/>
     </row>
     <row r="276" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B276" s="91"/>
-      <c r="C276" s="94"/>
-      <c r="D276" s="97"/>
+      <c r="B276" s="104"/>
+      <c r="C276" s="95"/>
+      <c r="D276" s="101"/>
       <c r="E276" s="45" t="s">
-        <v>757</v>
-      </c>
-      <c r="F276" s="54">
-        <v>123456.789</v>
-      </c>
-      <c r="G276" s="94"/>
-      <c r="H276" s="100"/>
-      <c r="I276" s="103"/>
+        <v>747</v>
+      </c>
+      <c r="F276" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="G276" s="95"/>
+      <c r="H276" s="98"/>
+      <c r="I276" s="92"/>
       <c r="J276" s="45"/>
     </row>
-    <row r="277" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B277" s="92"/>
-      <c r="C277" s="95"/>
-      <c r="D277" s="98"/>
-      <c r="E277" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="F277" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="G277" s="95"/>
-      <c r="H277" s="101"/>
-      <c r="I277" s="104"/>
-      <c r="J277" s="45"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B10:J102"/>
+  <autoFilter ref="B10:J101"/>
   <mergeCells count="200">
-    <mergeCell ref="I169:I175"/>
-    <mergeCell ref="G176:G182"/>
-    <mergeCell ref="H176:H182"/>
-    <mergeCell ref="I176:I182"/>
-    <mergeCell ref="D176:D182"/>
-    <mergeCell ref="B169:B175"/>
-    <mergeCell ref="C169:C175"/>
-    <mergeCell ref="D169:D175"/>
-    <mergeCell ref="G169:G175"/>
-    <mergeCell ref="H169:H175"/>
-    <mergeCell ref="G155:G161"/>
-    <mergeCell ref="H155:H161"/>
-    <mergeCell ref="I155:I161"/>
-    <mergeCell ref="B162:B168"/>
-    <mergeCell ref="C162:C168"/>
-    <mergeCell ref="D162:D168"/>
-    <mergeCell ref="G162:G168"/>
-    <mergeCell ref="H162:H168"/>
-    <mergeCell ref="I162:I168"/>
-    <mergeCell ref="D155:D161"/>
-    <mergeCell ref="C155:C161"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="H103:H108"/>
-    <mergeCell ref="I103:I108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="D72:D77"/>
-    <mergeCell ref="G72:G77"/>
-    <mergeCell ref="H72:H77"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="G78:G83"/>
-    <mergeCell ref="H78:H83"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I72:I77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="I125:I130"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="D133:D138"/>
-    <mergeCell ref="G133:G138"/>
-    <mergeCell ref="H133:H138"/>
-    <mergeCell ref="I133:I138"/>
-    <mergeCell ref="I60:I65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="H66:H71"/>
-    <mergeCell ref="I66:I71"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="H60:H65"/>
-    <mergeCell ref="G118:G123"/>
-    <mergeCell ref="H118:H123"/>
-    <mergeCell ref="I118:I123"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="G103:G108"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="H111:H116"/>
-    <mergeCell ref="G140:G144"/>
-    <mergeCell ref="H140:H144"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I28:I33"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I140:I144"/>
+    <mergeCell ref="B269:B276"/>
+    <mergeCell ref="C269:C276"/>
+    <mergeCell ref="D269:D276"/>
+    <mergeCell ref="G269:G276"/>
+    <mergeCell ref="H269:H276"/>
+    <mergeCell ref="I269:I276"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="G255:G257"/>
+    <mergeCell ref="H255:H257"/>
+    <mergeCell ref="I255:I257"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="H259:H262"/>
+    <mergeCell ref="I259:I262"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="D259:D262"/>
+    <mergeCell ref="C259:C262"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="C263:C266"/>
+    <mergeCell ref="D263:D266"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="H263:H266"/>
+    <mergeCell ref="I263:I266"/>
+    <mergeCell ref="B236:B242"/>
+    <mergeCell ref="C236:C242"/>
+    <mergeCell ref="D236:D242"/>
+    <mergeCell ref="G236:G242"/>
+    <mergeCell ref="H236:H242"/>
+    <mergeCell ref="I236:I242"/>
+    <mergeCell ref="G245:G252"/>
+    <mergeCell ref="H245:H252"/>
+    <mergeCell ref="I245:I252"/>
+    <mergeCell ref="B245:B252"/>
+    <mergeCell ref="C245:C252"/>
+    <mergeCell ref="D245:D252"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="G220:G226"/>
+    <mergeCell ref="H220:H226"/>
+    <mergeCell ref="I220:I226"/>
+    <mergeCell ref="B228:B234"/>
+    <mergeCell ref="C228:C234"/>
+    <mergeCell ref="D228:D234"/>
+    <mergeCell ref="G228:G234"/>
+    <mergeCell ref="H228:H234"/>
+    <mergeCell ref="I228:I234"/>
+    <mergeCell ref="G205:G210"/>
+    <mergeCell ref="H205:H210"/>
+    <mergeCell ref="I205:I210"/>
+    <mergeCell ref="D205:D210"/>
+    <mergeCell ref="C205:C210"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="B212:B218"/>
+    <mergeCell ref="C212:C218"/>
+    <mergeCell ref="D212:D218"/>
+    <mergeCell ref="G212:G218"/>
+    <mergeCell ref="H212:H218"/>
+    <mergeCell ref="I212:I218"/>
+    <mergeCell ref="G184:G189"/>
+    <mergeCell ref="H184:H189"/>
+    <mergeCell ref="I184:I189"/>
+    <mergeCell ref="D191:D196"/>
+    <mergeCell ref="C191:C196"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="G191:G196"/>
+    <mergeCell ref="H191:H196"/>
+    <mergeCell ref="I191:I196"/>
+    <mergeCell ref="D198:D203"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="I198:I203"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="C124:C129"/>
+    <mergeCell ref="D124:D129"/>
+    <mergeCell ref="G124:G129"/>
+    <mergeCell ref="H124:H129"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="I110:I115"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="D184:D189"/>
+    <mergeCell ref="C184:C189"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -12773,108 +12747,107 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="C199:C204"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B176:B182"/>
-    <mergeCell ref="C176:C182"/>
-    <mergeCell ref="D199:D204"/>
-    <mergeCell ref="G199:G204"/>
-    <mergeCell ref="H199:H204"/>
-    <mergeCell ref="I199:I204"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="I46:I50"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="C125:C130"/>
-    <mergeCell ref="D125:D130"/>
-    <mergeCell ref="G125:G130"/>
-    <mergeCell ref="H125:H130"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="D140:D144"/>
-    <mergeCell ref="I111:I116"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="D185:D190"/>
-    <mergeCell ref="C185:C190"/>
-    <mergeCell ref="G185:G190"/>
-    <mergeCell ref="H185:H190"/>
-    <mergeCell ref="I185:I190"/>
-    <mergeCell ref="D192:D197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="G192:G197"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I192:I197"/>
-    <mergeCell ref="G206:G211"/>
-    <mergeCell ref="H206:H211"/>
-    <mergeCell ref="I206:I211"/>
-    <mergeCell ref="D206:D211"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="B213:B219"/>
-    <mergeCell ref="C213:C219"/>
-    <mergeCell ref="D213:D219"/>
-    <mergeCell ref="G213:G219"/>
-    <mergeCell ref="H213:H219"/>
-    <mergeCell ref="I213:I219"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="C221:C227"/>
-    <mergeCell ref="D221:D227"/>
-    <mergeCell ref="G221:G227"/>
-    <mergeCell ref="H221:H227"/>
-    <mergeCell ref="I221:I227"/>
-    <mergeCell ref="B229:B235"/>
-    <mergeCell ref="C229:C235"/>
-    <mergeCell ref="D229:D235"/>
-    <mergeCell ref="G229:G235"/>
-    <mergeCell ref="H229:H235"/>
-    <mergeCell ref="I229:I235"/>
-    <mergeCell ref="B237:B243"/>
-    <mergeCell ref="C237:C243"/>
-    <mergeCell ref="D237:D243"/>
-    <mergeCell ref="G237:G243"/>
-    <mergeCell ref="H237:H243"/>
-    <mergeCell ref="I237:I243"/>
-    <mergeCell ref="G246:G253"/>
-    <mergeCell ref="H246:H253"/>
-    <mergeCell ref="I246:I253"/>
-    <mergeCell ref="B246:B253"/>
-    <mergeCell ref="C246:C253"/>
-    <mergeCell ref="D246:D253"/>
-    <mergeCell ref="B270:B277"/>
-    <mergeCell ref="C270:C277"/>
-    <mergeCell ref="D270:D277"/>
-    <mergeCell ref="G270:G277"/>
-    <mergeCell ref="H270:H277"/>
-    <mergeCell ref="I270:I277"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="D256:D258"/>
-    <mergeCell ref="G256:G258"/>
-    <mergeCell ref="H256:H258"/>
-    <mergeCell ref="I256:I258"/>
-    <mergeCell ref="G260:G263"/>
-    <mergeCell ref="H260:H263"/>
-    <mergeCell ref="I260:I263"/>
-    <mergeCell ref="B260:B263"/>
-    <mergeCell ref="D260:D263"/>
-    <mergeCell ref="C260:C263"/>
-    <mergeCell ref="B264:B267"/>
-    <mergeCell ref="C264:C267"/>
-    <mergeCell ref="D264:D267"/>
-    <mergeCell ref="G264:G267"/>
-    <mergeCell ref="H264:H267"/>
-    <mergeCell ref="I264:I267"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="C198:C203"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="C110:C115"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="D110:D115"/>
+    <mergeCell ref="G110:G115"/>
+    <mergeCell ref="H110:H115"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="I124:I129"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="G132:G137"/>
+    <mergeCell ref="H132:H137"/>
+    <mergeCell ref="I132:I137"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="I117:I122"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="G71:G76"/>
+    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="G154:G160"/>
+    <mergeCell ref="H154:H160"/>
+    <mergeCell ref="I154:I160"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="D161:D167"/>
+    <mergeCell ref="G161:G167"/>
+    <mergeCell ref="H161:H167"/>
+    <mergeCell ref="I161:I167"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="I168:I174"/>
+    <mergeCell ref="G175:G181"/>
+    <mergeCell ref="H175:H181"/>
+    <mergeCell ref="I175:I181"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="D168:D174"/>
+    <mergeCell ref="G168:G174"/>
+    <mergeCell ref="H168:H174"/>
   </mergeCells>
-  <conditionalFormatting sqref="H13:H14 H34:H35">
+  <conditionalFormatting sqref="H13 H33:H34">
     <cfRule type="containsText" dxfId="259" priority="502" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H13)))</formula>
     </cfRule>
@@ -12885,872 +12858,872 @@
       <formula>NOT(ISERROR(SEARCH("Passed",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H14 H34:H35">
+  <conditionalFormatting sqref="H13 H33:H34">
     <cfRule type="containsText" dxfId="256" priority="501" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H19">
+  <conditionalFormatting sqref="H16:H18">
     <cfRule type="containsText" dxfId="255" priority="486" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="254" priority="487" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="253" priority="488" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H19">
+  <conditionalFormatting sqref="H16:H18">
     <cfRule type="containsText" dxfId="252" priority="485" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56 H100 H42 H97 H46 H52">
+  <conditionalFormatting sqref="H54:H55 H99 H41 H96 H45 H51">
     <cfRule type="containsText" dxfId="251" priority="470" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="250" priority="471" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="249" priority="472" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56 H100 H42 H97 H46 H52">
+  <conditionalFormatting sqref="H54:H55 H99 H41 H96 H45 H51">
     <cfRule type="containsText" dxfId="248" priority="469" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="containsText" dxfId="247" priority="434" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="435" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="436" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="containsText" dxfId="244" priority="433" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="containsText" dxfId="243" priority="430" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="431" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="432" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="containsText" dxfId="240" priority="429" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="containsText" dxfId="239" priority="386" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="387" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="388" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="containsText" dxfId="236" priority="385" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149:H152 H184 H245 H255 H144:H146 H259:H261 H263">
+    <cfRule type="containsText" dxfId="235" priority="242" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="243" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="233" priority="244" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149:H152 H184 H245 H255 H144:H146 H259:H261 H263">
+    <cfRule type="containsText" dxfId="232" priority="241" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="containsText" dxfId="231" priority="206" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="207" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="208" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123">
+    <cfRule type="containsText" dxfId="228" priority="205" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="227" priority="238" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="239" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="240" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="224" priority="237" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H148">
+    <cfRule type="containsText" dxfId="223" priority="234" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="235" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="236" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H148">
+    <cfRule type="containsText" dxfId="220" priority="233" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H183">
+    <cfRule type="containsText" dxfId="219" priority="230" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="231" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="232" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H183">
+    <cfRule type="containsText" dxfId="216" priority="229" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H244">
+    <cfRule type="containsText" dxfId="215" priority="226" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="227" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="228" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H244">
+    <cfRule type="containsText" dxfId="212" priority="225" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H254">
+    <cfRule type="containsText" dxfId="211" priority="222" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H254)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="223" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H254)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="224" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H254)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H254">
+    <cfRule type="containsText" dxfId="208" priority="221" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H254)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="containsText" dxfId="207" priority="214" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="215" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="216" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116">
+    <cfRule type="containsText" dxfId="204" priority="213" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="containsText" dxfId="203" priority="194" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="195" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="196" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="containsText" dxfId="200" priority="193" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="containsText" dxfId="199" priority="198" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="199" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H154">
+    <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H190">
+    <cfRule type="containsText" dxfId="195" priority="186" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="187" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="188" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H190">
+    <cfRule type="containsText" dxfId="192" priority="185" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H197">
+    <cfRule type="containsText" dxfId="191" priority="178" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="179" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H197)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="180" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H197">
+    <cfRule type="containsText" dxfId="188" priority="177" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H197)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H205">
+    <cfRule type="containsText" dxfId="187" priority="174" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="175" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H205)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="176" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H205)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H205">
+    <cfRule type="containsText" dxfId="184" priority="173" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H205)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H204">
+    <cfRule type="containsText" dxfId="183" priority="170" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="171" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="172" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H204">
+    <cfRule type="containsText" dxfId="180" priority="169" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H211">
+    <cfRule type="containsText" dxfId="179" priority="162" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="163" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H211)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="164" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H211)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H211">
+    <cfRule type="containsText" dxfId="176" priority="161" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H211)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H235">
+    <cfRule type="containsText" dxfId="175" priority="154" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="155" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="156" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H235">
+    <cfRule type="containsText" dxfId="172" priority="153" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H219">
+    <cfRule type="containsText" dxfId="171" priority="146" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="147" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="148" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H219">
+    <cfRule type="containsText" dxfId="168" priority="145" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H227">
+    <cfRule type="containsText" dxfId="167" priority="138" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H227)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="139" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H227)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="140" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H227)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H227">
+    <cfRule type="containsText" dxfId="164" priority="137" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H227)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="163" priority="134" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="135" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="136" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="160" priority="133" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:H93">
+    <cfRule type="containsText" dxfId="159" priority="126" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="127" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="128" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90:H93">
+    <cfRule type="containsText" dxfId="156" priority="125" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="155" priority="130" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="131" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="132" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="152" priority="129" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110">
+    <cfRule type="containsText" dxfId="151" priority="122" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="123" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="124" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110">
+    <cfRule type="containsText" dxfId="148" priority="121" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="containsText" dxfId="147" priority="114" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="115" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="116" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="containsText" dxfId="144" priority="113" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="containsText" dxfId="143" priority="118" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="119" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="120" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="containsText" dxfId="140" priority="117" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="containsText" dxfId="139" priority="106" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="107" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="108" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H138">
+    <cfRule type="containsText" dxfId="136" priority="105" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="containsText" dxfId="135" priority="94" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="95" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="96" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="containsText" dxfId="132" priority="93" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="containsText" dxfId="131" priority="90" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H139)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="91" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H139)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="92" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H139">
+    <cfRule type="containsText" dxfId="128" priority="89" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="containsText" dxfId="127" priority="82" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="83" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="84" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="containsText" dxfId="124" priority="81" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="123" priority="86" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="87" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H59)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="88" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="containsText" dxfId="120" priority="85" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="119" priority="78" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="79" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="80" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="116" priority="77" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="containsText" dxfId="115" priority="70" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="71" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="72" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="containsText" dxfId="112" priority="69" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="containsText" dxfId="111" priority="74" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="75" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="76" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="containsText" dxfId="108" priority="73" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85:H86">
+    <cfRule type="containsText" dxfId="107" priority="66" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="67" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H85)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="68" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85:H86">
+    <cfRule type="containsText" dxfId="104" priority="65" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="containsText" dxfId="103" priority="62" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="63" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H87)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="64" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="containsText" dxfId="100" priority="61" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H38">
+    <cfRule type="containsText" dxfId="99" priority="58" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="59" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="60" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H38">
+    <cfRule type="containsText" dxfId="96" priority="57" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="containsText" dxfId="247" priority="434" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="95" priority="50" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="435" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="94" priority="51" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="436" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="93" priority="52" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="containsText" dxfId="244" priority="433" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="92" priority="49" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H102)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="containsText" dxfId="243" priority="430" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="431" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="432" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H110)))</formula>
+  <conditionalFormatting sqref="H161">
+    <cfRule type="containsText" dxfId="91" priority="46" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="47" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="48" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="containsText" dxfId="240" priority="429" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H110)))</formula>
+  <conditionalFormatting sqref="H161">
+    <cfRule type="containsText" dxfId="88" priority="45" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="239" priority="386" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="387" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="388" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H57)))</formula>
+  <conditionalFormatting sqref="H168">
+    <cfRule type="containsText" dxfId="87" priority="42" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="43" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="44" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H168)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="containsText" dxfId="236" priority="385" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H57)))</formula>
+  <conditionalFormatting sqref="H168">
+    <cfRule type="containsText" dxfId="84" priority="41" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H168)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H150:H153 H185 H246 H256 H145:H147 H260:H262 H264">
-    <cfRule type="containsText" dxfId="235" priority="242" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H145)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="243" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H145)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="244" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H145)))</formula>
+  <conditionalFormatting sqref="H175">
+    <cfRule type="containsText" dxfId="83" priority="38" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="39" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H175)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="40" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H175)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H150:H153 H185 H246 H256 H145:H147 H260:H262 H264">
-    <cfRule type="containsText" dxfId="232" priority="241" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H145)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="containsText" dxfId="231" priority="206" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="207" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="208" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="containsText" dxfId="228" priority="205" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
-    <cfRule type="containsText" dxfId="227" priority="238" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="239" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="240" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
-    <cfRule type="containsText" dxfId="224" priority="237" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H149">
-    <cfRule type="containsText" dxfId="223" priority="234" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="235" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="236" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H149">
-    <cfRule type="containsText" dxfId="220" priority="233" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H184">
-    <cfRule type="containsText" dxfId="219" priority="230" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="231" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="232" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H184">
-    <cfRule type="containsText" dxfId="216" priority="229" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H245">
-    <cfRule type="containsText" dxfId="215" priority="226" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H245)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="227" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H245)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="228" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H245)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H245">
-    <cfRule type="containsText" dxfId="212" priority="225" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H245)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H255">
-    <cfRule type="containsText" dxfId="211" priority="222" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H255)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="223" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H255)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="224" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H255)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H255">
-    <cfRule type="containsText" dxfId="208" priority="221" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H255)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
-    <cfRule type="containsText" dxfId="207" priority="214" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="215" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="216" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
-    <cfRule type="containsText" dxfId="204" priority="213" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H154">
-    <cfRule type="containsText" dxfId="203" priority="194" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="195" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="196" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H154">
-    <cfRule type="containsText" dxfId="200" priority="193" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H155">
-    <cfRule type="containsText" dxfId="199" priority="198" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="199" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H155">
-    <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H155)))</formula>
+  <conditionalFormatting sqref="H175">
+    <cfRule type="containsText" dxfId="80" priority="37" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H175)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="195" priority="186" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="79" priority="34" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="187" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H191)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="188" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="77" priority="36" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="containsText" dxfId="192" priority="185" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="76" priority="33" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H191)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H198">
-    <cfRule type="containsText" dxfId="191" priority="178" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="75" priority="30" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="179" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="74" priority="31" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="180" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="73" priority="32" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H198">
-    <cfRule type="containsText" dxfId="188" priority="177" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="72" priority="29" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H198)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H206">
-    <cfRule type="containsText" dxfId="187" priority="174" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="175" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="176" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H206">
-    <cfRule type="containsText" dxfId="184" priority="173" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H205">
-    <cfRule type="containsText" dxfId="183" priority="170" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="171" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H205)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="172" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H205)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H205">
-    <cfRule type="containsText" dxfId="180" priority="169" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212">
-    <cfRule type="containsText" dxfId="179" priority="162" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="71" priority="26" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="163" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="70" priority="27" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="164" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="69" priority="28" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212">
-    <cfRule type="containsText" dxfId="176" priority="161" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H212)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H220">
+    <cfRule type="containsText" dxfId="67" priority="22" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="23" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H220)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="24" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H220)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H220">
+    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H220)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H228">
+    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H228)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H228)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H228)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H228">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H236">
-    <cfRule type="containsText" dxfId="175" priority="154" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="59" priority="14" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="155" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="156" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="57" priority="16" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H236">
-    <cfRule type="containsText" dxfId="172" priority="153" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H236)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="containsText" dxfId="171" priority="146" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H220)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="147" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H220)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="148" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H220)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="containsText" dxfId="168" priority="145" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H220)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H228">
-    <cfRule type="containsText" dxfId="167" priority="138" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H228)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="139" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H228)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="140" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H228)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H228">
-    <cfRule type="containsText" dxfId="164" priority="137" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H228)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="163" priority="134" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="135" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="136" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="160" priority="133" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H94">
-    <cfRule type="containsText" dxfId="159" priority="126" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="127" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="128" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H94">
-    <cfRule type="containsText" dxfId="156" priority="125" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="155" priority="130" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="131" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="132" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="152" priority="129" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
-    <cfRule type="containsText" dxfId="151" priority="122" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="123" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="124" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
-    <cfRule type="containsText" dxfId="148" priority="121" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="147" priority="114" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="115" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="144" priority="113" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="containsText" dxfId="143" priority="118" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="119" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="120" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="containsText" dxfId="140" priority="117" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H139">
-    <cfRule type="containsText" dxfId="139" priority="106" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="107" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="108" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H139">
-    <cfRule type="containsText" dxfId="136" priority="105" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="containsText" dxfId="135" priority="94" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="95" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="96" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="containsText" dxfId="132" priority="93" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H140">
-    <cfRule type="containsText" dxfId="131" priority="90" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="91" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="92" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H140">
-    <cfRule type="containsText" dxfId="128" priority="89" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="127" priority="82" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="83" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="84" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="containsText" dxfId="124" priority="81" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="123" priority="86" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="87" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="88" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="containsText" dxfId="120" priority="85" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="119" priority="78" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="79" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="80" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="containsText" dxfId="116" priority="77" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="115" priority="70" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="71" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H85)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="72" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="containsText" dxfId="112" priority="69" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="111" priority="74" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="75" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="76" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="108" priority="73" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H78)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H87">
-    <cfRule type="containsText" dxfId="107" priority="66" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="67" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H86)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="68" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H87">
-    <cfRule type="containsText" dxfId="104" priority="65" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="103" priority="62" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="63" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="64" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="100" priority="61" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="containsText" dxfId="99" priority="58" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="59" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="60" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="containsText" dxfId="96" priority="57" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="containsText" dxfId="95" priority="50" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="51" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="52" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="containsText" dxfId="92" priority="49" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H162">
-    <cfRule type="containsText" dxfId="91" priority="46" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="47" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="48" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H162">
-    <cfRule type="containsText" dxfId="88" priority="45" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
-    <cfRule type="containsText" dxfId="87" priority="42" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="43" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="44" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H169)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H169">
-    <cfRule type="containsText" dxfId="84" priority="41" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H169)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
-    <cfRule type="containsText" dxfId="83" priority="38" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="39" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="40" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H176">
-    <cfRule type="containsText" dxfId="80" priority="37" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H176)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="79" priority="34" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H192)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="36" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H192">
-    <cfRule type="containsText" dxfId="76" priority="33" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H192)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H199">
-    <cfRule type="containsText" dxfId="75" priority="30" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H199)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H199)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="32" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H199)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H199">
-    <cfRule type="containsText" dxfId="72" priority="29" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H199)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H213">
-    <cfRule type="containsText" dxfId="71" priority="26" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H213)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="27" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H213)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="28" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H213)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H213">
-    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H213)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="containsText" dxfId="67" priority="22" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H221)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="23" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H221)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="24" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H221)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H221)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H229">
-    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H229)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H229">
-    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H229)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H237">
-    <cfRule type="containsText" dxfId="59" priority="14" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H237)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H237)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="16" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H237">
-    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H270">
-    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H270)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H270)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H270)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H270">
-    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H269">
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="53" priority="12" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H269">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Block">
+      <formula>NOT(ISERROR(SEARCH("Block",H269)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H268">
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="Not Applicable">
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H268)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",H268)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",H268)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H268">
     <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H269)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H268)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H259">
+  <conditionalFormatting sqref="H258">
     <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H259)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H258)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H259)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H258)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H259)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H258)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H259">
+  <conditionalFormatting sqref="H258">
     <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H259)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G91:G94 G52 G38:G39 G13:G14 G46 G17:G19 G22 G85:G88 G97 G55:G57 G245:G246 G100 G124:G125 G28 G110:G111 G117:G118 G139:G140 G132:G133 G60 G66 G72 G78 G176 G42 G102:G103 G149:G155 G162 G169 G184:G185 G191:G192 G198:G199 G205:G206 G212:G213 G220:G221 G228:G229 G236:G237 G34:G35 G269:G270 G255:G256 G259:G262 G264 G145:G147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90:G93 G51 G37:G38 G13 G45 G16:G18 G21 G84:G87 G96 G54:G56 G244:G245 G99 G123:G124 G27 G109:G110 G116:G117 G138:G139 G131:G132 G59 G65 G71 G77 G175 G41 G101:G102 G148:G154 G161 G168 G183:G184 G190:G191 G197:G198 G204:G205 G211:G212 G219:G220 G227:G228 G235:G236 G33:G34 G268:G269 G254:G255 G258:G261 G263 G144:G146">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H97 H52 H22 H38:H39 H100 H46 H13:H14 H85:H88 H17:H19 H55:H57 H245:H246 H91:H94 H124:H125 H28 H110:H111 H117:H118 H139:H140 H132:H133 H60 H66 H72 H78 H176 H42 H102:H103 H149:H155 H162 H169 H184:H185 H191:H192 H198:H199 H205:H206 H212:H213 H220:H221 H228:H229 H236:H237 H34:H35 H269:H270 H255:H256 H259:H262 H264 H145:H147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H96 H51 H21 H37:H38 H99 H45 H13 H84:H87 H16:H18 H54:H56 H244:H245 H90:H93 H123:H124 H27 H109:H110 H116:H117 H138:H139 H131:H132 H59 H65 H71 H77 H175 H41 H101:H102 H148:H154 H161 H168 H183:H184 H190:H191 H197:H198 H204:H205 H211:H212 H219:H220 H227:H228 H235:H236 H33:H34 H268:H269 H254:H255 H258:H261 H263 H144:H146">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I97 I52 I124:I125 I78 I46 I22 I100 I17:I19 I13:I14 I55:I57 I245:I246 I85:I88 I117:I118 I28 I110:I111 I91:I94 I139:I140 I132:I133 I60 I38:I39 I66 I72 I169 I42 I102:I103 I236:I237 I149:I155 I162 I184:I185 I176 I191:I192 I198:I199 I212:I213 I220:I221 I228:I229 I205:I206 I34:I35 I269:I270 I255:I256 I259:I262 I264 I145:I147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I96 I51 I123:I124 I77 I45 I21 I99 I16:I18 I13 I54:I56 I244:I245 I84:I87 I116:I117 I27 I109:I110 I90:I93 I138:I139 I131:I132 I59 I37:I38 I65 I71 I168 I41 I101:I102 I235:I236 I148:I154 I161 I183:I184 I175 I190:I191 I197:I198 I211:I212 I219:I220 I227:I228 I204:I205 I33:I34 I268:I269 I254:I255 I258:I261 I263 I144:I146">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F249" r:id="rId1"/>
+    <hyperlink ref="F248" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -13780,13 +13753,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="106"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -13796,11 +13769,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -13810,55 +13783,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="108" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
